--- a/digui/results/TESTLSTM.xlsx
+++ b/digui/results/TESTLSTM.xlsx
@@ -479,7 +479,7 @@
         <v>0.09713159</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2003739923238754</v>
+        <v>0.1929071843624115</v>
       </c>
     </row>
     <row r="3">
@@ -505,7 +505,7 @@
         <v>0.20269001</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2389156371355057</v>
+        <v>0.2313656359910965</v>
       </c>
     </row>
     <row r="4">
@@ -531,7 +531,7 @@
         <v>0.27423908</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2818609476089478</v>
+        <v>0.2769127488136292</v>
       </c>
     </row>
     <row r="5">
@@ -557,7 +557,7 @@
         <v>0.17182292</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3281339406967163</v>
+        <v>0.3268615007400513</v>
       </c>
     </row>
     <row r="6">
@@ -583,7 +583,7 @@
         <v>0.14065067</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3671863675117493</v>
+        <v>0.3752226829528809</v>
       </c>
     </row>
     <row r="7">
@@ -609,7 +609,7 @@
         <v>0.0893189675</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4046601057052612</v>
+        <v>0.4186827540397644</v>
       </c>
     </row>
     <row r="8">
@@ -635,7 +635,7 @@
         <v>0.069797975</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4422300457954407</v>
+        <v>0.4551722407341003</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0.017501526</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4763296842575073</v>
+        <v>0.4847342967987061</v>
       </c>
     </row>
     <row r="10">
@@ -687,7 +687,7 @@
         <v>0.015903792</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5048501491546631</v>
+        <v>0.507541835308075</v>
       </c>
     </row>
     <row r="11">
@@ -713,7 +713,7 @@
         <v>0.03657253989</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5312169790267944</v>
+        <v>0.5255200266838074</v>
       </c>
     </row>
     <row r="12">
@@ -739,7 +739,7 @@
         <v>0.021737634</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5554770231246948</v>
+        <v>0.5404903292655945</v>
       </c>
     </row>
     <row r="13">
@@ -765,7 +765,7 @@
         <v>0.06513152699999999</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5775073766708374</v>
+        <v>0.5531176924705505</v>
       </c>
     </row>
     <row r="14">
@@ -791,7 +791,7 @@
         <v>0.088419949</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5968484878540039</v>
+        <v>0.5648223757743835</v>
       </c>
     </row>
     <row r="15">
@@ -817,7 +817,7 @@
         <v>0.14846095</v>
       </c>
       <c r="H15" t="n">
-        <v>0.61276775598526</v>
+        <v>0.5757376551628113</v>
       </c>
     </row>
     <row r="16">
@@ -843,7 +843,7 @@
         <v>0.19231961</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6250847578048706</v>
+        <v>0.5852050185203552</v>
       </c>
     </row>
     <row r="17">
@@ -869,7 +869,7 @@
         <v>0.19758697</v>
       </c>
       <c r="H17" t="n">
-        <v>0.6337761878967285</v>
+        <v>0.5925174951553345</v>
       </c>
     </row>
     <row r="18">
@@ -895,7 +895,7 @@
         <v>0.20285433</v>
       </c>
       <c r="H18" t="n">
-        <v>0.6384164094924927</v>
+        <v>0.597132682800293</v>
       </c>
     </row>
     <row r="19">
@@ -921,7 +921,7 @@
         <v>0.18105879</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6393727660179138</v>
+        <v>0.598486602306366</v>
       </c>
     </row>
     <row r="20">
@@ -947,7 +947,7 @@
         <v>0.22697213</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6372626423835754</v>
+        <v>0.5962235927581787</v>
       </c>
     </row>
     <row r="21">
@@ -973,7 +973,7 @@
         <v>0.29283132</v>
       </c>
       <c r="H21" t="n">
-        <v>0.633925199508667</v>
+        <v>0.5907055139541626</v>
       </c>
     </row>
     <row r="22">
@@ -999,7 +999,7 @@
         <v>0.3465299</v>
       </c>
       <c r="H22" t="n">
-        <v>0.6282280087471008</v>
+        <v>0.5828049182891846</v>
       </c>
     </row>
     <row r="23">
@@ -1025,7 +1025,7 @@
         <v>0.4532698</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6172447800636292</v>
+        <v>0.5733751058578491</v>
       </c>
     </row>
     <row r="24">
@@ -1051,7 +1051,7 @@
         <v>0.47587437</v>
       </c>
       <c r="H24" t="n">
-        <v>0.6005774736404419</v>
+        <v>0.5628079175949097</v>
       </c>
     </row>
     <row r="25">
@@ -1077,7 +1077,7 @@
         <v>0.51279752</v>
       </c>
       <c r="H25" t="n">
-        <v>0.5781807899475098</v>
+        <v>0.5513361096382141</v>
       </c>
     </row>
     <row r="26">
@@ -1103,7 +1103,7 @@
         <v>0.499421</v>
       </c>
       <c r="H26" t="n">
-        <v>0.5498212575912476</v>
+        <v>0.5381150245666504</v>
       </c>
     </row>
     <row r="27">
@@ -1129,7 +1129,7 @@
         <v>0.49637419</v>
       </c>
       <c r="H27" t="n">
-        <v>0.5186623334884644</v>
+        <v>0.5213354825973511</v>
       </c>
     </row>
     <row r="28">
@@ -1155,7 +1155,7 @@
         <v>0.47974586</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4847253859043121</v>
+        <v>0.5010324716567993</v>
       </c>
     </row>
     <row r="29">
@@ -1181,7 +1181,7 @@
         <v>0.4756459</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4519235789775848</v>
+        <v>0.4772145748138428</v>
       </c>
     </row>
     <row r="30">
@@ -1207,7 +1207,7 @@
         <v>0.40121591</v>
       </c>
       <c r="H30" t="n">
-        <v>0.4172560274600983</v>
+        <v>0.4479787945747375</v>
       </c>
     </row>
     <row r="31">
@@ -1233,7 +1233,7 @@
         <v>0.36358543</v>
       </c>
       <c r="H31" t="n">
-        <v>0.381233274936676</v>
+        <v>0.4135642647743225</v>
       </c>
     </row>
     <row r="32">
@@ -1259,7 +1259,7 @@
         <v>0.40328154</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3540741801261902</v>
+        <v>0.3761534094810486</v>
       </c>
     </row>
     <row r="33">
@@ -1285,7 +1285,7 @@
         <v>0.4363817</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3294103443622589</v>
+        <v>0.3397585153579712</v>
       </c>
     </row>
     <row r="34">
@@ -1311,7 +1311,7 @@
         <v>0.4695163</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3042024970054626</v>
+        <v>0.3047891855239868</v>
       </c>
     </row>
     <row r="35">
@@ -1337,7 +1337,7 @@
         <v>0.4860836</v>
       </c>
       <c r="H35" t="n">
-        <v>0.2826753556728363</v>
+        <v>0.2730734944343567</v>
       </c>
     </row>
     <row r="36">
@@ -1363,7 +1363,7 @@
         <v>0.5022628</v>
       </c>
       <c r="H36" t="n">
-        <v>0.2629892528057098</v>
+        <v>0.2455547749996185</v>
       </c>
     </row>
     <row r="37">
@@ -1389,7 +1389,7 @@
         <v>0.47803077</v>
       </c>
       <c r="H37" t="n">
-        <v>0.2454104274511337</v>
+        <v>0.2216922491788864</v>
       </c>
     </row>
     <row r="38">
@@ -1415,7 +1415,7 @@
         <v>0.47490102</v>
       </c>
       <c r="H38" t="n">
-        <v>0.2271557003259659</v>
+        <v>0.200596496462822</v>
       </c>
     </row>
     <row r="39">
@@ -1441,7 +1441,7 @@
         <v>0.46761967</v>
       </c>
       <c r="H39" t="n">
-        <v>0.2058955878019333</v>
+        <v>0.1815180331468582</v>
       </c>
     </row>
     <row r="40">
@@ -1467,7 +1467,7 @@
         <v>0.45195531</v>
       </c>
       <c r="H40" t="n">
-        <v>0.1862562149763107</v>
+        <v>0.163888618350029</v>
       </c>
     </row>
     <row r="41">
@@ -1493,7 +1493,7 @@
         <v>0.44381328</v>
       </c>
       <c r="H41" t="n">
-        <v>0.1681776195764542</v>
+        <v>0.1485398262739182</v>
       </c>
     </row>
     <row r="42">
@@ -1519,7 +1519,7 @@
         <v>0.40701688</v>
       </c>
       <c r="H42" t="n">
-        <v>0.1503107100725174</v>
+        <v>0.1347483098506927</v>
       </c>
     </row>
     <row r="43">
@@ -1545,7 +1545,7 @@
         <v>0.42513966</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1351617276668549</v>
+        <v>0.1228018552064896</v>
       </c>
     </row>
     <row r="44">
@@ -1571,7 +1571,7 @@
         <v>0.44309031</v>
       </c>
       <c r="H44" t="n">
-        <v>0.1226450577378273</v>
+        <v>0.1133129298686981</v>
       </c>
     </row>
     <row r="45">
@@ -1597,7 +1597,7 @@
         <v>0.47124705</v>
       </c>
       <c r="H45" t="n">
-        <v>0.1120456159114838</v>
+        <v>0.1062690764665604</v>
       </c>
     </row>
     <row r="46">
@@ -1623,7 +1623,7 @@
         <v>0.50097961</v>
       </c>
       <c r="H46" t="n">
-        <v>0.1044723317027092</v>
+        <v>0.1013820841908455</v>
       </c>
     </row>
     <row r="47">
@@ -1649,7 +1649,7 @@
         <v>0.47012034</v>
       </c>
       <c r="H47" t="n">
-        <v>0.09904971718788147</v>
+        <v>0.09851299226284027</v>
       </c>
     </row>
     <row r="48">
@@ -1675,7 +1675,7 @@
         <v>0.48567047</v>
       </c>
       <c r="H48" t="n">
-        <v>0.09510466456413269</v>
+        <v>0.09713941067457199</v>
       </c>
     </row>
     <row r="49">
@@ -1701,7 +1701,7 @@
         <v>0.48752484</v>
       </c>
       <c r="H49" t="n">
-        <v>0.092296302318573</v>
+        <v>0.09688787907361984</v>
       </c>
     </row>
     <row r="50">
@@ -1727,7 +1727,7 @@
         <v>0.48444987</v>
       </c>
       <c r="H50" t="n">
-        <v>0.09052101522684097</v>
+        <v>0.0974138155579567</v>
       </c>
     </row>
     <row r="51">
@@ -1753,7 +1753,7 @@
         <v>0.47592914</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0892389714717865</v>
+        <v>0.0981564000248909</v>
       </c>
     </row>
     <row r="52">
@@ -1779,7 +1779,7 @@
         <v>0.49291896</v>
       </c>
       <c r="H52" t="n">
-        <v>0.08827747404575348</v>
+        <v>0.09858700633049011</v>
       </c>
     </row>
     <row r="53">
@@ -1805,7 +1805,7 @@
         <v>0.45731656</v>
       </c>
       <c r="H53" t="n">
-        <v>0.08766166120767593</v>
+        <v>0.09862161427736282</v>
       </c>
     </row>
     <row r="54">
@@ -1831,7 +1831,7 @@
         <v>0.46613461</v>
       </c>
       <c r="H54" t="n">
-        <v>0.08748187869787216</v>
+        <v>0.09818693250417709</v>
       </c>
     </row>
     <row r="55">
@@ -1857,7 +1857,7 @@
         <v>0.4559739</v>
       </c>
       <c r="H55" t="n">
-        <v>0.08764708787202835</v>
+        <v>0.09756698459386826</v>
       </c>
     </row>
     <row r="56">
@@ -1883,7 +1883,7 @@
         <v>0.43690124</v>
       </c>
       <c r="H56" t="n">
-        <v>0.08811953663825989</v>
+        <v>0.09675414860248566</v>
       </c>
     </row>
     <row r="57">
@@ -1909,7 +1909,7 @@
         <v>0.43248048</v>
       </c>
       <c r="H57" t="n">
-        <v>0.08894848078489304</v>
+        <v>0.09579894691705704</v>
       </c>
     </row>
     <row r="58">
@@ -1935,7 +1935,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H58" t="n">
-        <v>0.08997321128845215</v>
+        <v>0.094915471971035</v>
       </c>
     </row>
     <row r="59">
@@ -1961,7 +1961,7 @@
         <v>0.42352002</v>
       </c>
       <c r="H59" t="n">
-        <v>0.09116460382938385</v>
+        <v>0.09429986774921417</v>
       </c>
     </row>
     <row r="60">
@@ -1987,7 +1987,7 @@
         <v>0.39606904</v>
       </c>
       <c r="H60" t="n">
-        <v>0.09251844137907028</v>
+        <v>0.09487830847501755</v>
       </c>
     </row>
     <row r="61">
@@ -2013,7 +2013,7 @@
         <v>0.3852057</v>
       </c>
       <c r="H61" t="n">
-        <v>0.09418599307537079</v>
+        <v>0.09626572579145432</v>
       </c>
     </row>
     <row r="62">
@@ -2039,7 +2039,7 @@
         <v>0.37650815</v>
       </c>
       <c r="H62" t="n">
-        <v>0.09616375714540482</v>
+        <v>0.09790733456611633</v>
       </c>
     </row>
     <row r="63">
@@ -2065,7 +2065,7 @@
         <v>0.40208754</v>
       </c>
       <c r="H63" t="n">
-        <v>0.09834584593772888</v>
+        <v>0.0994175598025322</v>
       </c>
     </row>
     <row r="64">
@@ -2091,7 +2091,7 @@
         <v>0.42753235</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1010352149605751</v>
+        <v>0.1014196947216988</v>
       </c>
     </row>
     <row r="65">
@@ -2117,7 +2117,7 @@
         <v>0.42473749</v>
       </c>
       <c r="H65" t="n">
-        <v>0.1044826358556747</v>
+        <v>0.1043339595198631</v>
       </c>
     </row>
     <row r="66">
@@ -2143,7 +2143,7 @@
         <v>0.43402188</v>
       </c>
       <c r="H66" t="n">
-        <v>0.1083764359354973</v>
+        <v>0.1080571189522743</v>
       </c>
     </row>
     <row r="67">
@@ -2169,7 +2169,7 @@
         <v>0.44085567</v>
       </c>
       <c r="H67" t="n">
-        <v>0.1126109287142754</v>
+        <v>0.1128266304731369</v>
       </c>
     </row>
     <row r="68">
@@ -2195,7 +2195,7 @@
         <v>0.43219254</v>
       </c>
       <c r="H68" t="n">
-        <v>0.117380328476429</v>
+        <v>0.1185026839375496</v>
       </c>
     </row>
     <row r="69">
@@ -2221,7 +2221,7 @@
         <v>0.44570208</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1224346160888672</v>
+        <v>0.1249617785215378</v>
       </c>
     </row>
     <row r="70">
@@ -2247,7 +2247,7 @@
         <v>0.45485188</v>
       </c>
       <c r="H70" t="n">
-        <v>0.127911239862442</v>
+        <v>0.1321543455123901</v>
       </c>
     </row>
     <row r="71">
@@ -2273,7 +2273,7 @@
         <v>0.431673</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1334252804517746</v>
+        <v>0.1396164149045944</v>
       </c>
     </row>
     <row r="72">
@@ -2299,7 +2299,7 @@
         <v>0.43091404</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1390455365180969</v>
+        <v>0.1471589058637619</v>
       </c>
     </row>
     <row r="73">
@@ -2325,7 +2325,7 @@
         <v>0.42575309</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1448434144258499</v>
+        <v>0.1544914096593857</v>
       </c>
     </row>
     <row r="74">
@@ -2351,7 +2351,7 @@
         <v>0.39589378</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1507707834243774</v>
+        <v>0.161566361784935</v>
       </c>
     </row>
     <row r="75">
@@ -2377,7 +2377,7 @@
         <v>0.41125456</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1567647904157639</v>
+        <v>0.1685299575328827</v>
       </c>
     </row>
     <row r="76">
@@ -2403,7 +2403,7 @@
         <v>0.40900427</v>
       </c>
       <c r="H76" t="n">
-        <v>0.162863165140152</v>
+        <v>0.1755551993846893</v>
       </c>
     </row>
     <row r="77">
@@ -2429,7 +2429,7 @@
         <v>0.42656526</v>
       </c>
       <c r="H77" t="n">
-        <v>0.1693466007709503</v>
+        <v>0.1826529055833817</v>
       </c>
     </row>
     <row r="78">
@@ -2455,7 +2455,7 @@
         <v>0.3886093</v>
       </c>
       <c r="H78" t="n">
-        <v>0.1762830317020416</v>
+        <v>0.1901564449071884</v>
       </c>
     </row>
     <row r="79">
@@ -2481,7 +2481,7 @@
         <v>0.43284822</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1833609789609909</v>
+        <v>0.1974898874759674</v>
       </c>
     </row>
     <row r="80">
@@ -2507,7 +2507,7 @@
         <v>0.40746131</v>
       </c>
       <c r="H80" t="n">
-        <v>0.1907677799463272</v>
+        <v>0.2052278816699982</v>
       </c>
     </row>
     <row r="81">
@@ -2533,7 +2533,7 @@
         <v>0.40109385</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1987530291080475</v>
+        <v>0.2130666673183441</v>
       </c>
     </row>
     <row r="82">
@@ -2559,7 +2559,7 @@
         <v>0.39054661</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2071688771247864</v>
+        <v>0.221101388335228</v>
       </c>
     </row>
     <row r="83">
@@ -2585,7 +2585,7 @@
         <v>0.41216062</v>
       </c>
       <c r="H83" t="n">
-        <v>0.2154813408851624</v>
+        <v>0.2289648950099945</v>
       </c>
     </row>
     <row r="84">
@@ -2611,7 +2611,7 @@
         <v>0.42731014</v>
       </c>
       <c r="H84" t="n">
-        <v>0.2233500778675079</v>
+        <v>0.2370772361755371</v>
       </c>
     </row>
     <row r="85">
@@ -2637,7 +2637,7 @@
         <v>0.42790323</v>
       </c>
       <c r="H85" t="n">
-        <v>0.2313520461320877</v>
+        <v>0.2454292178153992</v>
       </c>
     </row>
     <row r="86">
@@ -2663,7 +2663,7 @@
         <v>0.3919816</v>
       </c>
       <c r="H86" t="n">
-        <v>0.2393740266561508</v>
+        <v>0.2538734376430511</v>
       </c>
     </row>
     <row r="87">
@@ -2689,7 +2689,7 @@
         <v>0.37288077</v>
       </c>
       <c r="H87" t="n">
-        <v>0.2473117113113403</v>
+        <v>0.2619384527206421</v>
       </c>
     </row>
     <row r="88">
@@ -2715,7 +2715,7 @@
         <v>0.36116927</v>
       </c>
       <c r="H88" t="n">
-        <v>0.2544468939304352</v>
+        <v>0.2694410979747772</v>
       </c>
     </row>
     <row r="89">
@@ -2741,7 +2741,7 @@
         <v>0.38357354</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2616910338401794</v>
+        <v>0.2765432000160217</v>
       </c>
     </row>
     <row r="90">
@@ -2767,7 +2767,7 @@
         <v>0.38730107</v>
       </c>
       <c r="H90" t="n">
-        <v>0.2702320516109467</v>
+        <v>0.283761203289032</v>
       </c>
     </row>
     <row r="91">
@@ -2793,7 +2793,7 @@
         <v>0.38590676</v>
       </c>
       <c r="H91" t="n">
-        <v>0.2789961993694305</v>
+        <v>0.2911666631698608</v>
       </c>
     </row>
     <row r="92">
@@ -2819,7 +2819,7 @@
         <v>0.40964743</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2877678871154785</v>
+        <v>0.2992320656776428</v>
       </c>
     </row>
     <row r="93">
@@ -2845,7 +2845,7 @@
         <v>0.42507081</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2969298958778381</v>
+        <v>0.3082802295684814</v>
       </c>
     </row>
     <row r="94">
@@ -2871,7 +2871,7 @@
         <v>0.44752985</v>
       </c>
       <c r="H94" t="n">
-        <v>0.3059360086917877</v>
+        <v>0.3180458545684814</v>
       </c>
     </row>
     <row r="95">
@@ -2897,7 +2897,7 @@
         <v>0.46998889</v>
       </c>
       <c r="H95" t="n">
-        <v>0.3153715133666992</v>
+        <v>0.3281139731407166</v>
       </c>
     </row>
     <row r="96">
@@ -2923,7 +2923,7 @@
         <v>0.46103939</v>
       </c>
       <c r="H96" t="n">
-        <v>0.3237414956092834</v>
+        <v>0.3375126719474792</v>
       </c>
     </row>
     <row r="97">
@@ -2949,7 +2949,7 @@
         <v>0.48580661</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3312608301639557</v>
+        <v>0.345525860786438</v>
       </c>
     </row>
     <row r="98">
@@ -2975,7 +2975,7 @@
         <v>0.47386508</v>
       </c>
       <c r="H98" t="n">
-        <v>0.3370219171047211</v>
+        <v>0.3519138693809509</v>
       </c>
     </row>
     <row r="99">
@@ -3001,7 +3001,7 @@
         <v>0.46448837</v>
       </c>
       <c r="H99" t="n">
-        <v>0.3410292863845825</v>
+        <v>0.3562327027320862</v>
       </c>
     </row>
     <row r="100">
@@ -3027,7 +3027,7 @@
         <v>0.45810525</v>
       </c>
       <c r="H100" t="n">
-        <v>0.3434288799762726</v>
+        <v>0.3583042621612549</v>
       </c>
     </row>
     <row r="101">
@@ -3053,7 +3053,7 @@
         <v>0.42819429</v>
       </c>
       <c r="H101" t="n">
-        <v>0.3445692360401154</v>
+        <v>0.3582866787910461</v>
       </c>
     </row>
     <row r="102">
@@ -3079,7 +3079,7 @@
         <v>0.45820853</v>
       </c>
       <c r="H102" t="n">
-        <v>0.3441649973392487</v>
+        <v>0.356479287147522</v>
       </c>
     </row>
     <row r="103">
@@ -3105,7 +3105,7 @@
         <v>0.44526079</v>
       </c>
       <c r="H103" t="n">
-        <v>0.3427844345569611</v>
+        <v>0.3535688519477844</v>
       </c>
     </row>
     <row r="104">
@@ -3131,7 +3131,7 @@
         <v>0.40718276</v>
       </c>
       <c r="H104" t="n">
-        <v>0.3409032225608826</v>
+        <v>0.349698007106781</v>
       </c>
     </row>
     <row r="105">
@@ -3157,7 +3157,7 @@
         <v>0.39522088</v>
       </c>
       <c r="H105" t="n">
-        <v>0.338703840970993</v>
+        <v>0.3449506759643555</v>
       </c>
     </row>
     <row r="106">
@@ -3183,7 +3183,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H106" t="n">
-        <v>0.3364275693893433</v>
+        <v>0.3397874236106873</v>
       </c>
     </row>
     <row r="107">
@@ -3209,7 +3209,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H107" t="n">
-        <v>0.3343896865844727</v>
+        <v>0.3348800539970398</v>
       </c>
     </row>
     <row r="108">
@@ -3235,7 +3235,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H108" t="n">
-        <v>0.3325012028217316</v>
+        <v>0.3303699493408203</v>
       </c>
     </row>
     <row r="109">
@@ -3261,7 +3261,7 @@
         <v>0.46212697</v>
       </c>
       <c r="H109" t="n">
-        <v>0.3307947814464569</v>
+        <v>0.3264042735099792</v>
       </c>
     </row>
     <row r="110">
@@ -3287,7 +3287,7 @@
         <v>0.44337512</v>
       </c>
       <c r="H110" t="n">
-        <v>0.3293189704418182</v>
+        <v>0.3231040239334106</v>
       </c>
     </row>
     <row r="111">
@@ -3313,7 +3313,7 @@
         <v>0.43004397</v>
       </c>
       <c r="H111" t="n">
-        <v>0.3280484676361084</v>
+        <v>0.3203501105308533</v>
       </c>
     </row>
     <row r="112">
@@ -3339,7 +3339,7 @@
         <v>0.4236546</v>
       </c>
       <c r="H112" t="n">
-        <v>0.3268954157829285</v>
+        <v>0.3180308938026428</v>
       </c>
     </row>
     <row r="113">
@@ -3365,7 +3365,7 @@
         <v>0.41726367</v>
       </c>
       <c r="H113" t="n">
-        <v>0.3258180022239685</v>
+        <v>0.3161117434501648</v>
       </c>
     </row>
     <row r="114">
@@ -3391,7 +3391,7 @@
         <v>0.41090872</v>
       </c>
       <c r="H114" t="n">
-        <v>0.3248026669025421</v>
+        <v>0.3143324851989746</v>
       </c>
     </row>
     <row r="115">
@@ -3417,7 +3417,7 @@
         <v>0.41021392</v>
       </c>
       <c r="H115" t="n">
-        <v>0.323896050453186</v>
+        <v>0.312664806842804</v>
       </c>
     </row>
     <row r="116">
@@ -3443,7 +3443,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H116" t="n">
-        <v>0.3230068981647491</v>
+        <v>0.3112280964851379</v>
       </c>
     </row>
     <row r="117">
@@ -3469,7 +3469,7 @@
         <v>0.43339906</v>
       </c>
       <c r="H117" t="n">
-        <v>0.322231650352478</v>
+        <v>0.3102418184280396</v>
       </c>
     </row>
     <row r="118">
@@ -3495,7 +3495,7 @@
         <v>0.45944948</v>
       </c>
       <c r="H118" t="n">
-        <v>0.3215092718601227</v>
+        <v>0.3096181750297546</v>
       </c>
     </row>
     <row r="119">
@@ -3521,7 +3521,7 @@
         <v>0.45775316</v>
       </c>
       <c r="H119" t="n">
-        <v>0.3208588659763336</v>
+        <v>0.3094834089279175</v>
       </c>
     </row>
     <row r="120">
@@ -3547,7 +3547,7 @@
         <v>0.4363817</v>
       </c>
       <c r="H120" t="n">
-        <v>0.3201623260974884</v>
+        <v>0.3095742464065552</v>
       </c>
     </row>
     <row r="121">
@@ -3573,7 +3573,7 @@
         <v>0.42147161</v>
       </c>
       <c r="H121" t="n">
-        <v>0.3193358480930328</v>
+        <v>0.3095777630805969</v>
       </c>
     </row>
     <row r="122">
@@ -3599,7 +3599,7 @@
         <v>0.38937922</v>
       </c>
       <c r="H122" t="n">
-        <v>0.3183044195175171</v>
+        <v>0.3093074560165405</v>
       </c>
     </row>
     <row r="123">
@@ -3625,7 +3625,7 @@
         <v>0.39471073</v>
       </c>
       <c r="H123" t="n">
-        <v>0.3170774579048157</v>
+        <v>0.3083817362785339</v>
       </c>
     </row>
     <row r="124">
@@ -3651,7 +3651,7 @@
         <v>0.40004225</v>
       </c>
       <c r="H124" t="n">
-        <v>0.3159662783145905</v>
+        <v>0.3072179555892944</v>
       </c>
     </row>
     <row r="125">
@@ -3677,7 +3677,7 @@
         <v>0.42104283</v>
       </c>
       <c r="H125" t="n">
-        <v>0.3152505159378052</v>
+        <v>0.305922269821167</v>
       </c>
     </row>
     <row r="126">
@@ -3703,7 +3703,7 @@
         <v>0.43073252</v>
       </c>
       <c r="H126" t="n">
-        <v>0.3150534927845001</v>
+        <v>0.3049337863922119</v>
       </c>
     </row>
     <row r="127">
@@ -3729,7 +3729,7 @@
         <v>0.42729606</v>
       </c>
       <c r="H127" t="n">
-        <v>0.3153178989887238</v>
+        <v>0.3044269680976868</v>
       </c>
     </row>
     <row r="128">
@@ -3755,7 +3755,7 @@
         <v>0.4317622</v>
       </c>
       <c r="H128" t="n">
-        <v>0.3161072432994843</v>
+        <v>0.30463045835495</v>
       </c>
     </row>
     <row r="129">
@@ -3781,7 +3781,7 @@
         <v>0.40453969</v>
       </c>
       <c r="H129" t="n">
-        <v>0.3170603215694427</v>
+        <v>0.3051894307136536</v>
       </c>
     </row>
     <row r="130">
@@ -3807,7 +3807,7 @@
         <v>0.36332097</v>
       </c>
       <c r="H130" t="n">
-        <v>0.3183704614639282</v>
+        <v>0.3058791160583496</v>
       </c>
     </row>
     <row r="131">
@@ -3833,7 +3833,7 @@
         <v>0.37903854</v>
       </c>
       <c r="H131" t="n">
-        <v>0.3204899430274963</v>
+        <v>0.3066885471343994</v>
       </c>
     </row>
     <row r="132">
@@ -3859,7 +3859,7 @@
         <v>0.35179569</v>
       </c>
       <c r="H132" t="n">
-        <v>0.3239383697509766</v>
+        <v>0.3081943988800049</v>
       </c>
     </row>
     <row r="133">
@@ -3885,7 +3885,7 @@
         <v>0.39911428</v>
       </c>
       <c r="H133" t="n">
-        <v>0.3290399610996246</v>
+        <v>0.310429573059082</v>
       </c>
     </row>
     <row r="134">
@@ -3911,7 +3911,7 @@
         <v>0.43113938</v>
       </c>
       <c r="H134" t="n">
-        <v>0.3362418115139008</v>
+        <v>0.3145424723625183</v>
       </c>
     </row>
     <row r="135">
@@ -3937,7 +3937,7 @@
         <v>0.43279658</v>
       </c>
       <c r="H135" t="n">
-        <v>0.3449165225028992</v>
+        <v>0.3208019137382507</v>
       </c>
     </row>
     <row r="136">
@@ -3963,7 +3963,7 @@
         <v>0.45793625</v>
       </c>
       <c r="H136" t="n">
-        <v>0.3548049926757812</v>
+        <v>0.3287688493728638</v>
       </c>
     </row>
     <row r="137">
@@ -3989,7 +3989,7 @@
         <v>0.46968217</v>
       </c>
       <c r="H137" t="n">
-        <v>0.3655877113342285</v>
+        <v>0.3381198644638062</v>
       </c>
     </row>
     <row r="138">
@@ -4015,7 +4015,7 @@
         <v>0.49679827</v>
       </c>
       <c r="H138" t="n">
-        <v>0.3765929937362671</v>
+        <v>0.3480626344680786</v>
       </c>
     </row>
     <row r="139">
@@ -4041,7 +4041,7 @@
         <v>0.49254808</v>
       </c>
       <c r="H139" t="n">
-        <v>0.3878699839115143</v>
+        <v>0.3582573533058167</v>
       </c>
     </row>
     <row r="140">
@@ -4067,7 +4067,7 @@
         <v>0.49918783</v>
       </c>
       <c r="H140" t="n">
-        <v>0.3986624777317047</v>
+        <v>0.3680493831634521</v>
       </c>
     </row>
     <row r="141">
@@ -4093,7 +4093,7 @@
         <v>0.49726617</v>
       </c>
       <c r="H141" t="n">
-        <v>0.4085899889469147</v>
+        <v>0.3766939043998718</v>
       </c>
     </row>
     <row r="142">
@@ -4119,7 +4119,7 @@
         <v>0.48484422</v>
       </c>
       <c r="H142" t="n">
-        <v>0.4174040257930756</v>
+        <v>0.3837045431137085</v>
       </c>
     </row>
     <row r="143">
@@ -4145,7 +4145,7 @@
         <v>0.47276497</v>
       </c>
       <c r="H143" t="n">
-        <v>0.4249047040939331</v>
+        <v>0.3888998031616211</v>
       </c>
     </row>
     <row r="144">
@@ -4171,7 +4171,7 @@
         <v>0.49349796</v>
       </c>
       <c r="H144" t="n">
-        <v>0.4311456084251404</v>
+        <v>0.392181932926178</v>
       </c>
     </row>
     <row r="145">
@@ -4197,7 +4197,7 @@
         <v>0.48783156</v>
       </c>
       <c r="H145" t="n">
-        <v>0.4362283647060394</v>
+        <v>0.3937965035438538</v>
       </c>
     </row>
     <row r="146">
@@ -4223,7 +4223,7 @@
         <v>0.46324429</v>
       </c>
       <c r="H146" t="n">
-        <v>0.4401322603225708</v>
+        <v>0.3937492966651917</v>
       </c>
     </row>
     <row r="147">
@@ -4249,7 +4249,7 @@
         <v>0.45568283</v>
       </c>
       <c r="H147" t="n">
-        <v>0.4433627128601074</v>
+        <v>0.3921108841896057</v>
       </c>
     </row>
     <row r="148">
@@ -4275,7 +4275,7 @@
         <v>0.46253697</v>
       </c>
       <c r="H148" t="n">
-        <v>0.4464163482189178</v>
+        <v>0.3895269632339478</v>
       </c>
     </row>
     <row r="149">
@@ -4301,7 +4301,7 @@
         <v>0.46930974</v>
       </c>
       <c r="H149" t="n">
-        <v>0.450545996427536</v>
+        <v>0.386430561542511</v>
       </c>
     </row>
     <row r="150">
@@ -4327,7 +4327,7 @@
         <v>0.44447835</v>
       </c>
       <c r="H150" t="n">
-        <v>0.4554154276847839</v>
+        <v>0.3838326334953308</v>
       </c>
     </row>
     <row r="151">
@@ -4353,7 +4353,7 @@
         <v>0.41231241</v>
       </c>
       <c r="H151" t="n">
-        <v>0.4617531895637512</v>
+        <v>0.3821542263031006</v>
       </c>
     </row>
     <row r="152">
@@ -4379,7 +4379,7 @@
         <v>0.40444893</v>
       </c>
       <c r="H152" t="n">
-        <v>0.4700822830200195</v>
+        <v>0.3816667199134827</v>
       </c>
     </row>
     <row r="153">
@@ -4405,7 +4405,7 @@
         <v>0.39130088</v>
       </c>
       <c r="H153" t="n">
-        <v>0.4809404015541077</v>
+        <v>0.3830373287200928</v>
       </c>
     </row>
     <row r="154">
@@ -4431,7 +4431,7 @@
         <v>0.35551852</v>
       </c>
       <c r="H154" t="n">
-        <v>0.4944756031036377</v>
+        <v>0.3869915008544922</v>
       </c>
     </row>
     <row r="155">
@@ -4457,7 +4457,7 @@
         <v>0.3609408</v>
       </c>
       <c r="H155" t="n">
-        <v>0.5108143091201782</v>
+        <v>0.3943173289299011</v>
       </c>
     </row>
     <row r="156">
@@ -4483,7 +4483,7 @@
         <v>0.41141574</v>
       </c>
       <c r="H156" t="n">
-        <v>0.5301245450973511</v>
+        <v>0.4057973027229309</v>
       </c>
     </row>
     <row r="157">
@@ -4509,7 +4509,7 @@
         <v>0.48920238</v>
       </c>
       <c r="H157" t="n">
-        <v>0.5503577589988708</v>
+        <v>0.4215449094772339</v>
       </c>
     </row>
     <row r="158">
@@ -4535,7 +4535,7 @@
         <v>0.48348591</v>
       </c>
       <c r="H158" t="n">
-        <v>0.5700985789299011</v>
+        <v>0.4406982064247131</v>
       </c>
     </row>
     <row r="159">
@@ -4561,7 +4561,7 @@
         <v>0.49304258</v>
       </c>
       <c r="H159" t="n">
-        <v>0.5883395075798035</v>
+        <v>0.460868239402771</v>
       </c>
     </row>
     <row r="160">
@@ -4587,7 +4587,7 @@
         <v>0.49304258</v>
       </c>
       <c r="H160" t="n">
-        <v>0.6042097210884094</v>
+        <v>0.4805088639259338</v>
       </c>
     </row>
     <row r="161">
@@ -4613,7 +4613,7 @@
         <v>0.51536704</v>
       </c>
       <c r="H161" t="n">
-        <v>0.6176039576530457</v>
+        <v>0.4978915452957153</v>
       </c>
     </row>
     <row r="162">
@@ -4639,7 +4639,7 @@
         <v>0.5127677899999999</v>
       </c>
       <c r="H162" t="n">
-        <v>0.6276708245277405</v>
+        <v>0.5117191076278687</v>
       </c>
     </row>
     <row r="163">
@@ -4665,7 +4665,7 @@
         <v>0.48310095</v>
       </c>
       <c r="H163" t="n">
-        <v>0.6350031495094299</v>
+        <v>0.5215819478034973</v>
       </c>
     </row>
     <row r="164">
@@ -4691,7 +4691,7 @@
         <v>0.51696008</v>
       </c>
       <c r="H164" t="n">
-        <v>0.6394973993301392</v>
+        <v>0.5270069241523743</v>
       </c>
     </row>
     <row r="165">
@@ -4717,7 +4717,7 @@
         <v>0.49276873</v>
       </c>
       <c r="H165" t="n">
-        <v>0.6409388184547424</v>
+        <v>0.5283573269844055</v>
       </c>
     </row>
     <row r="166">
@@ -4743,7 +4743,7 @@
         <v>0.5363300600000001</v>
       </c>
       <c r="H166" t="n">
-        <v>0.6392912864685059</v>
+        <v>0.5257092118263245</v>
       </c>
     </row>
     <row r="167">
@@ -4769,7 +4769,7 @@
         <v>0.50789791</v>
       </c>
       <c r="H167" t="n">
-        <v>0.6347721219062805</v>
+        <v>0.5195472836494446</v>
       </c>
     </row>
     <row r="168">
@@ -4795,7 +4795,7 @@
         <v>0.51886296</v>
       </c>
       <c r="H168" t="n">
-        <v>0.6276687979698181</v>
+        <v>0.5099579691886902</v>
       </c>
     </row>
     <row r="169">
@@ -4821,7 +4821,7 @@
         <v>0.52987653</v>
       </c>
       <c r="H169" t="n">
-        <v>0.6187821626663208</v>
+        <v>0.4979566335678101</v>
       </c>
     </row>
     <row r="170">
@@ -4847,7 +4847,7 @@
         <v>0.51863293</v>
       </c>
       <c r="H170" t="n">
-        <v>0.6076247096061707</v>
+        <v>0.4842093586921692</v>
       </c>
     </row>
     <row r="171">
@@ -4873,7 +4873,7 @@
         <v>0.5115972600000001</v>
       </c>
       <c r="H171" t="n">
-        <v>0.5946926474571228</v>
+        <v>0.4690226316452026</v>
       </c>
     </row>
     <row r="172">
@@ -4899,7 +4899,7 @@
         <v>0.529116</v>
       </c>
       <c r="H172" t="n">
-        <v>0.5801624059677124</v>
+        <v>0.4529461860656738</v>
       </c>
     </row>
     <row r="173">
@@ -4925,7 +4925,7 @@
         <v>0.55504436</v>
       </c>
       <c r="H173" t="n">
-        <v>0.5642188191413879</v>
+        <v>0.436464786529541</v>
       </c>
     </row>
     <row r="174">
@@ -4951,7 +4951,7 @@
         <v>0.58683473</v>
       </c>
       <c r="H174" t="n">
-        <v>0.5470404028892517</v>
+        <v>0.4201334118843079</v>
       </c>
     </row>
     <row r="175">
@@ -4977,7 +4977,7 @@
         <v>0.58580192</v>
       </c>
       <c r="H175" t="n">
-        <v>0.5289101600646973</v>
+        <v>0.4042797088623047</v>
       </c>
     </row>
     <row r="176">
@@ -5003,7 +5003,7 @@
         <v>0.5623664</v>
       </c>
       <c r="H176" t="n">
-        <v>0.510060727596283</v>
+        <v>0.3889943957328796</v>
       </c>
     </row>
     <row r="177">
@@ -5029,7 +5029,7 @@
         <v>0.56759464</v>
       </c>
       <c r="H177" t="n">
-        <v>0.4905247986316681</v>
+        <v>0.37400883436203</v>
       </c>
     </row>
     <row r="178">
@@ -5055,7 +5055,7 @@
         <v>0.53765081</v>
       </c>
       <c r="H178" t="n">
-        <v>0.4703017473220825</v>
+        <v>0.3592057228088379</v>
       </c>
     </row>
     <row r="179">
@@ -5081,7 +5081,7 @@
         <v>0.55864826</v>
       </c>
       <c r="H179" t="n">
-        <v>0.4493522942066193</v>
+        <v>0.3445683121681213</v>
       </c>
     </row>
     <row r="180">
@@ -5107,7 +5107,7 @@
         <v>0.53280284</v>
       </c>
       <c r="H180" t="n">
-        <v>0.4277493357658386</v>
+        <v>0.3301516771316528</v>
       </c>
     </row>
     <row r="181">
@@ -5133,7 +5133,7 @@
         <v>0.53838161</v>
       </c>
       <c r="H181" t="n">
-        <v>0.4051467776298523</v>
+        <v>0.3159677982330322</v>
       </c>
     </row>
     <row r="182">
@@ -5159,7 +5159,7 @@
         <v>0.54931537</v>
       </c>
       <c r="H182" t="n">
-        <v>0.3822669684886932</v>
+        <v>0.3022675514221191</v>
       </c>
     </row>
     <row r="183">
@@ -5185,7 +5185,7 @@
         <v>0.53031783</v>
       </c>
       <c r="H183" t="n">
-        <v>0.3616074621677399</v>
+        <v>0.2892582416534424</v>
       </c>
     </row>
     <row r="184">
@@ -5211,7 +5211,7 @@
         <v>0.49801261</v>
       </c>
       <c r="H184" t="n">
-        <v>0.3422692120075226</v>
+        <v>0.2770403623580933</v>
       </c>
     </row>
     <row r="185">
@@ -5237,7 +5237,7 @@
         <v>0.4756459</v>
       </c>
       <c r="H185" t="n">
-        <v>0.3245204985141754</v>
+        <v>0.2651865482330322</v>
       </c>
     </row>
     <row r="186">
@@ -5263,7 +5263,7 @@
         <v>0.45576577</v>
       </c>
       <c r="H186" t="n">
-        <v>0.3078064322471619</v>
+        <v>0.2537572681903839</v>
       </c>
     </row>
     <row r="187">
@@ -5289,7 +5289,7 @@
         <v>0.42343082</v>
       </c>
       <c r="H187" t="n">
-        <v>0.2930797934532166</v>
+        <v>0.242710068821907</v>
       </c>
     </row>
     <row r="188">
@@ -5315,7 +5315,7 @@
         <v>0.41299626</v>
       </c>
       <c r="H188" t="n">
-        <v>0.2801609635353088</v>
+        <v>0.2320470064878464</v>
       </c>
     </row>
     <row r="189">
@@ -5341,7 +5341,7 @@
         <v>0.48624947</v>
       </c>
       <c r="H189" t="n">
-        <v>0.2678978741168976</v>
+        <v>0.2223279029130936</v>
       </c>
     </row>
     <row r="190">
@@ -5367,7 +5367,7 @@
         <v>0.48508834</v>
       </c>
       <c r="H190" t="n">
-        <v>0.2563614249229431</v>
+        <v>0.214539960026741</v>
       </c>
     </row>
     <row r="191">
@@ -5393,7 +5393,7 @@
         <v>0.49088932</v>
       </c>
       <c r="H191" t="n">
-        <v>0.2465757578611374</v>
+        <v>0.2084200978279114</v>
       </c>
     </row>
     <row r="192">
@@ -5419,7 +5419,7 @@
         <v>0.55220412</v>
       </c>
       <c r="H192" t="n">
-        <v>0.2383691221475601</v>
+        <v>0.2041417360305786</v>
       </c>
     </row>
     <row r="193">
@@ -5445,7 +5445,7 @@
         <v>0.57815596</v>
       </c>
       <c r="H193" t="n">
-        <v>0.2308658212423325</v>
+        <v>0.201745331287384</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         <v>0.53635354</v>
       </c>
       <c r="H194" t="n">
-        <v>0.2239132225513458</v>
+        <v>0.2005029767751694</v>
       </c>
     </row>
     <row r="195">
@@ -5497,7 +5497,7 @@
         <v>0.46719716</v>
       </c>
       <c r="H195" t="n">
-        <v>0.2176644653081894</v>
+        <v>0.1992876678705215</v>
       </c>
     </row>
     <row r="196">
@@ -5523,7 +5523,7 @@
         <v>0.46388276</v>
       </c>
       <c r="H196" t="n">
-        <v>0.2119591385126114</v>
+        <v>0.19744573533535</v>
       </c>
     </row>
     <row r="197">
@@ -5549,7 +5549,7 @@
         <v>0.44855797</v>
       </c>
       <c r="H197" t="n">
-        <v>0.20642951130867</v>
+        <v>0.1950762420892715</v>
       </c>
     </row>
     <row r="198">
@@ -5575,7 +5575,7 @@
         <v>0.46008482</v>
       </c>
       <c r="H198" t="n">
-        <v>0.2012680768966675</v>
+        <v>0.1923989057540894</v>
       </c>
     </row>
     <row r="199">
@@ -5601,7 +5601,7 @@
         <v>0.44962991</v>
       </c>
       <c r="H199" t="n">
-        <v>0.1967379450798035</v>
+        <v>0.1900083422660828</v>
       </c>
     </row>
     <row r="200">
@@ -5627,7 +5627,7 @@
         <v>0.44899926</v>
       </c>
       <c r="H200" t="n">
-        <v>0.1926267147064209</v>
+        <v>0.1878688782453537</v>
       </c>
     </row>
     <row r="201">
@@ -5653,7 +5653,7 @@
         <v>0.46959924</v>
       </c>
       <c r="H201" t="n">
-        <v>0.188926100730896</v>
+        <v>0.1861250698566437</v>
       </c>
     </row>
     <row r="202">
@@ -5679,7 +5679,7 @@
         <v>0.50522041</v>
       </c>
       <c r="H202" t="n">
-        <v>0.185898631811142</v>
+        <v>0.1849509924650192</v>
       </c>
     </row>
     <row r="203">
@@ -5705,7 +5705,7 @@
         <v>0.4562634</v>
       </c>
       <c r="H203" t="n">
-        <v>0.1831211447715759</v>
+        <v>0.1844935864210129</v>
       </c>
     </row>
     <row r="204">
@@ -5731,7 +5731,7 @@
         <v>0.44294321</v>
       </c>
       <c r="H204" t="n">
-        <v>0.1801701039075851</v>
+        <v>0.1840577572584152</v>
       </c>
     </row>
     <row r="205">
@@ -5757,7 +5757,7 @@
         <v>0.4205186</v>
       </c>
       <c r="H205" t="n">
-        <v>0.1774603426456451</v>
+        <v>0.1834748387336731</v>
       </c>
     </row>
     <row r="206">
@@ -5783,7 +5783,7 @@
         <v>0.43953023</v>
       </c>
       <c r="H206" t="n">
-        <v>0.1751633435487747</v>
+        <v>0.1827610731124878</v>
       </c>
     </row>
     <row r="207">
@@ -5809,7 +5809,7 @@
         <v>0.38248752</v>
       </c>
       <c r="H207" t="n">
-        <v>0.1735914945602417</v>
+        <v>0.182340532541275</v>
       </c>
     </row>
     <row r="208">
@@ -5835,7 +5835,7 @@
         <v>0.3715209</v>
       </c>
       <c r="H208" t="n">
-        <v>0.1730676591396332</v>
+        <v>0.1818400770425797</v>
       </c>
     </row>
     <row r="209">
@@ -5861,7 +5861,7 @@
         <v>0.36405177</v>
       </c>
       <c r="H209" t="n">
-        <v>0.1739083826541901</v>
+        <v>0.1817555278539658</v>
       </c>
     </row>
     <row r="210">
@@ -5887,7 +5887,7 @@
         <v>0.35564058</v>
       </c>
       <c r="H210" t="n">
-        <v>0.1767522692680359</v>
+        <v>0.1824066191911697</v>
       </c>
     </row>
     <row r="211">
@@ -5913,7 +5913,7 @@
         <v>0.36381704</v>
       </c>
       <c r="H211" t="n">
-        <v>0.1817975789308548</v>
+        <v>0.184616431593895</v>
       </c>
     </row>
     <row r="212">
@@ -5939,7 +5939,7 @@
         <v>0.35752938</v>
       </c>
       <c r="H212" t="n">
-        <v>0.1893154829740524</v>
+        <v>0.1895178407430649</v>
       </c>
     </row>
     <row r="213">
@@ -5965,7 +5965,7 @@
         <v>0.35171745</v>
       </c>
       <c r="H213" t="n">
-        <v>0.2001586705446243</v>
+        <v>0.1976785659790039</v>
       </c>
     </row>
     <row r="214">
@@ -5991,7 +5991,7 @@
         <v>0.34829664</v>
       </c>
       <c r="H214" t="n">
-        <v>0.2143077254295349</v>
+        <v>0.209568053483963</v>
       </c>
     </row>
     <row r="215">
@@ -6017,7 +6017,7 @@
         <v>0.38146096</v>
       </c>
       <c r="H215" t="n">
-        <v>0.2320267707109451</v>
+        <v>0.2257081866264343</v>
       </c>
     </row>
     <row r="216">
@@ -6043,7 +6043,7 @@
         <v>0.3560631</v>
       </c>
       <c r="H216" t="n">
-        <v>0.2531483769416809</v>
+        <v>0.246198371052742</v>
       </c>
     </row>
     <row r="217">
@@ -6069,7 +6069,7 @@
         <v>0.38162684</v>
       </c>
       <c r="H217" t="n">
-        <v>0.2784330248832703</v>
+        <v>0.2709340453147888</v>
       </c>
     </row>
     <row r="218">
@@ -6095,7 +6095,7 @@
         <v>0.3765457</v>
       </c>
       <c r="H218" t="n">
-        <v>0.306979238986969</v>
+        <v>0.3004860877990723</v>
       </c>
     </row>
     <row r="219">
@@ -6121,7 +6121,7 @@
         <v>0.36438665</v>
       </c>
       <c r="H219" t="n">
-        <v>0.3418594002723694</v>
+        <v>0.334491491317749</v>
       </c>
     </row>
     <row r="220">
@@ -6147,7 +6147,7 @@
         <v>0.30760058</v>
       </c>
       <c r="H220" t="n">
-        <v>0.3812488913536072</v>
+        <v>0.3719955086708069</v>
       </c>
     </row>
     <row r="221">
@@ -6173,7 +6173,7 @@
         <v>0.30516877</v>
       </c>
       <c r="H221" t="n">
-        <v>0.4248917698860168</v>
+        <v>0.4123058915138245</v>
       </c>
     </row>
     <row r="222">
@@ -6199,7 +6199,7 @@
         <v>0.44967685</v>
       </c>
       <c r="H222" t="n">
-        <v>0.4718101322650909</v>
+        <v>0.4550682306289673</v>
       </c>
     </row>
     <row r="223">
@@ -6225,7 +6225,7 @@
         <v>0.55190367</v>
       </c>
       <c r="H223" t="n">
-        <v>0.5191459059715271</v>
+        <v>0.5015354156494141</v>
       </c>
     </row>
     <row r="224">
@@ -6251,7 +6251,7 @@
         <v>0.58135612</v>
       </c>
       <c r="H224" t="n">
-        <v>0.5639923810958862</v>
+        <v>0.549991250038147</v>
       </c>
     </row>
     <row r="225">
@@ -6277,7 +6277,7 @@
         <v>0.54701814</v>
       </c>
       <c r="H225" t="n">
-        <v>0.6027566194534302</v>
+        <v>0.5949907898902893</v>
       </c>
     </row>
     <row r="226">
@@ -6303,7 +6303,7 @@
         <v>0.5540804</v>
       </c>
       <c r="H226" t="n">
-        <v>0.6303914785385132</v>
+        <v>0.6316127181053162</v>
       </c>
     </row>
     <row r="227">
@@ -6329,7 +6329,7 @@
         <v>0.54755019</v>
       </c>
       <c r="H227" t="n">
-        <v>0.6493237614631653</v>
+        <v>0.6581394672393799</v>
       </c>
     </row>
     <row r="228">
@@ -6355,7 +6355,7 @@
         <v>0.49105363</v>
       </c>
       <c r="H228" t="n">
-        <v>0.6608332395553589</v>
+        <v>0.6741318106651306</v>
       </c>
     </row>
     <row r="229">
@@ -6381,7 +6381,7 @@
         <v>0.46272319</v>
       </c>
       <c r="H229" t="n">
-        <v>0.6659384369850159</v>
+        <v>0.6793857216835022</v>
       </c>
     </row>
     <row r="230">
@@ -6407,7 +6407,7 @@
         <v>0.4474829</v>
       </c>
       <c r="H230" t="n">
-        <v>0.665269672870636</v>
+        <v>0.6755062341690063</v>
       </c>
     </row>
     <row r="231">
@@ -6433,7 +6433,7 @@
         <v>0.46326151</v>
       </c>
       <c r="H231" t="n">
-        <v>0.6598829030990601</v>
+        <v>0.6643251180648804</v>
       </c>
     </row>
     <row r="232">
@@ -6459,7 +6459,7 @@
         <v>0.45147802</v>
       </c>
       <c r="H232" t="n">
-        <v>0.6511503458023071</v>
+        <v>0.6477419137954712</v>
       </c>
     </row>
     <row r="233">
@@ -6485,7 +6485,7 @@
         <v>0.45826644</v>
       </c>
       <c r="H233" t="n">
-        <v>0.6395582556724548</v>
+        <v>0.627034068107605</v>
       </c>
     </row>
     <row r="234">
@@ -6511,7 +6511,7 @@
         <v>0.50984148</v>
       </c>
       <c r="H234" t="n">
-        <v>0.625594437122345</v>
+        <v>0.6038109660148621</v>
       </c>
     </row>
     <row r="235">
@@ -6537,7 +6537,7 @@
         <v>0.54318733</v>
       </c>
       <c r="H235" t="n">
-        <v>0.6096141338348389</v>
+        <v>0.5794394612312317</v>
       </c>
     </row>
     <row r="236">
@@ -6563,7 +6563,7 @@
         <v>0.59668404</v>
       </c>
       <c r="H236" t="n">
-        <v>0.5916798710823059</v>
+        <v>0.5545752048492432</v>
       </c>
     </row>
     <row r="237">
@@ -6589,7 +6589,7 @@
         <v>0.61909613</v>
       </c>
       <c r="H237" t="n">
-        <v>0.5715218782424927</v>
+        <v>0.5302645564079285</v>
       </c>
     </row>
     <row r="238">
@@ -6615,7 +6615,7 @@
         <v>0.61634352</v>
       </c>
       <c r="H238" t="n">
-        <v>0.5490054488182068</v>
+        <v>0.5066320300102234</v>
       </c>
     </row>
     <row r="239">
@@ -6641,7 +6641,7 @@
         <v>0.54046445</v>
       </c>
       <c r="H239" t="n">
-        <v>0.5240849256515503</v>
+        <v>0.483269989490509</v>
       </c>
     </row>
     <row r="240">
@@ -6667,7 +6667,7 @@
         <v>0.5282506300000001</v>
       </c>
       <c r="H240" t="n">
-        <v>0.4974397122859955</v>
+        <v>0.4594258666038513</v>
       </c>
     </row>
     <row r="241">
@@ -6693,7 +6693,7 @@
         <v>0.48498975</v>
       </c>
       <c r="H241" t="n">
-        <v>0.4696925282478333</v>
+        <v>0.4353791475296021</v>
       </c>
     </row>
     <row r="242">
@@ -6719,7 +6719,7 @@
         <v>0.45767491</v>
       </c>
       <c r="H242" t="n">
-        <v>0.4419033825397491</v>
+        <v>0.4113866686820984</v>
       </c>
     </row>
     <row r="243">
@@ -6745,7 +6745,7 @@
         <v>0.43730967</v>
       </c>
       <c r="H243" t="n">
-        <v>0.4142855107784271</v>
+        <v>0.3877034783363342</v>
       </c>
     </row>
     <row r="244">
@@ -6771,7 +6771,7 @@
         <v>0.46444142</v>
       </c>
       <c r="H244" t="n">
-        <v>0.3889314532279968</v>
+        <v>0.3648344278335571</v>
       </c>
     </row>
     <row r="245">
@@ -6797,7 +6797,7 @@
         <v>0.47528442</v>
       </c>
       <c r="H245" t="n">
-        <v>0.3650067150592804</v>
+        <v>0.3434075117111206</v>
       </c>
     </row>
     <row r="246">
@@ -6823,7 +6823,7 @@
         <v>0.51179444</v>
       </c>
       <c r="H246" t="n">
-        <v>0.3447176218032837</v>
+        <v>0.3237173557281494</v>
       </c>
     </row>
     <row r="247">
@@ -6849,7 +6849,7 @@
         <v>0.537981</v>
       </c>
       <c r="H247" t="n">
-        <v>0.3279224038124084</v>
+        <v>0.3062138557434082</v>
       </c>
     </row>
     <row r="248">
@@ -6875,7 +6875,7 @@
         <v>0.54998513</v>
       </c>
       <c r="H248" t="n">
-        <v>0.3117328286170959</v>
+        <v>0.2907741665840149</v>
       </c>
     </row>
     <row r="249">
@@ -6901,7 +6901,7 @@
         <v>0.49851024</v>
       </c>
       <c r="H249" t="n">
-        <v>0.2967874109745026</v>
+        <v>0.2773544192314148</v>
       </c>
     </row>
     <row r="250">
@@ -6927,7 +6927,7 @@
         <v>0.47527033</v>
       </c>
       <c r="H250" t="n">
-        <v>0.2838096916675568</v>
+        <v>0.2650263011455536</v>
       </c>
     </row>
     <row r="251">
@@ -6953,7 +6953,7 @@
         <v>0.45058917</v>
       </c>
       <c r="H251" t="n">
-        <v>0.2718059420585632</v>
+        <v>0.253340482711792</v>
       </c>
     </row>
     <row r="252">
@@ -6979,7 +6979,7 @@
         <v>0.41103391</v>
       </c>
       <c r="H252" t="n">
-        <v>0.2615849375724792</v>
+        <v>0.2422323077917099</v>
       </c>
     </row>
     <row r="253">
@@ -7005,7 +7005,7 @@
         <v>0.42762781</v>
       </c>
       <c r="H253" t="n">
-        <v>0.2516273260116577</v>
+        <v>0.23127281665802</v>
       </c>
     </row>
     <row r="254">
@@ -7031,7 +7031,7 @@
         <v>0.45190836</v>
       </c>
       <c r="H254" t="n">
-        <v>0.2422645390033722</v>
+        <v>0.2209731936454773</v>
       </c>
     </row>
     <row r="255">
@@ -7057,7 +7057,7 @@
         <v>0.48807098</v>
       </c>
       <c r="H255" t="n">
-        <v>0.2340051531791687</v>
+        <v>0.2120530009269714</v>
       </c>
     </row>
     <row r="256">
@@ -7083,7 +7083,7 @@
         <v>0.51540773</v>
       </c>
       <c r="H256" t="n">
-        <v>0.2266609966754913</v>
+        <v>0.2049081176519394</v>
       </c>
     </row>
     <row r="257">
@@ -7109,7 +7109,7 @@
         <v>0.56461199</v>
       </c>
       <c r="H257" t="n">
-        <v>0.2203377932310104</v>
+        <v>0.1995927691459656</v>
       </c>
     </row>
     <row r="258">
@@ -7135,7 +7135,7 @@
         <v>0.55566562</v>
       </c>
       <c r="H258" t="n">
-        <v>0.2145970314741135</v>
+        <v>0.1958508640527725</v>
       </c>
     </row>
     <row r="259">
@@ -7161,7 +7161,7 @@
         <v>0.57504968</v>
       </c>
       <c r="H259" t="n">
-        <v>0.2090161740779877</v>
+        <v>0.1931936144828796</v>
       </c>
     </row>
     <row r="260">
@@ -7187,7 +7187,7 @@
         <v>0.53876813</v>
       </c>
       <c r="H260" t="n">
-        <v>0.2040979266166687</v>
+        <v>0.191379114985466</v>
       </c>
     </row>
     <row r="261">
@@ -7213,7 +7213,7 @@
         <v>0.52050138</v>
       </c>
       <c r="H261" t="n">
-        <v>0.1995245069265366</v>
+        <v>0.1893892735242844</v>
       </c>
     </row>
     <row r="262">
@@ -7239,7 +7239,7 @@
         <v>0.45328075</v>
       </c>
       <c r="H262" t="n">
-        <v>0.1951656490564346</v>
+        <v>0.1869177967309952</v>
       </c>
     </row>
     <row r="263">
@@ -7265,7 +7265,7 @@
         <v>0.41667058</v>
       </c>
       <c r="H263" t="n">
-        <v>0.1905791759490967</v>
+        <v>0.1833458244800568</v>
       </c>
     </row>
     <row r="264">
@@ -7291,7 +7291,7 @@
         <v>0.43091404</v>
       </c>
       <c r="H264" t="n">
-        <v>0.1856596916913986</v>
+        <v>0.1789000183343887</v>
       </c>
     </row>
     <row r="265">
@@ -7317,7 +7317,7 @@
         <v>0.49155908</v>
       </c>
       <c r="H265" t="n">
-        <v>0.1806922107934952</v>
+        <v>0.1742856800556183</v>
       </c>
     </row>
     <row r="266">
@@ -7343,7 +7343,7 @@
         <v>0.49304258</v>
       </c>
       <c r="H266" t="n">
-        <v>0.1763280481100082</v>
+        <v>0.1705417037010193</v>
       </c>
     </row>
     <row r="267">
@@ -7369,7 +7369,7 @@
         <v>0.50994007</v>
       </c>
       <c r="H267" t="n">
-        <v>0.1721563190221786</v>
+        <v>0.1675027459859848</v>
       </c>
     </row>
     <row r="268">
@@ -7395,7 +7395,7 @@
         <v>0.49372643</v>
       </c>
       <c r="H268" t="n">
-        <v>0.1685957610607147</v>
+        <v>0.165400817990303</v>
       </c>
     </row>
     <row r="269">
@@ -7421,7 +7421,7 @@
         <v>0.49065615</v>
       </c>
       <c r="H269" t="n">
-        <v>0.1656475067138672</v>
+        <v>0.163951501250267</v>
       </c>
     </row>
     <row r="270">
@@ -7447,7 +7447,7 @@
         <v>0.44830916</v>
       </c>
       <c r="H270" t="n">
-        <v>0.1631084233522415</v>
+        <v>0.1629156321287155</v>
       </c>
     </row>
     <row r="271">
@@ -7473,7 +7473,7 @@
         <v>0.42781873</v>
       </c>
       <c r="H271" t="n">
-        <v>0.1607106775045395</v>
+        <v>0.1616978198289871</v>
       </c>
     </row>
     <row r="272">
@@ -7499,7 +7499,7 @@
         <v>0.42519913</v>
       </c>
       <c r="H272" t="n">
-        <v>0.1585997194051743</v>
+        <v>0.1604306846857071</v>
       </c>
     </row>
     <row r="273">
@@ -7525,7 +7525,7 @@
         <v>0.41525906</v>
       </c>
       <c r="H273" t="n">
-        <v>0.1567775458097458</v>
+        <v>0.1593214571475983</v>
       </c>
     </row>
     <row r="274">
@@ -7551,7 +7551,7 @@
         <v>0.37813718</v>
       </c>
       <c r="H274" t="n">
-        <v>0.1553976088762283</v>
+        <v>0.1585210859775543</v>
       </c>
     </row>
     <row r="275">
@@ -7577,7 +7577,7 @@
         <v>0.37920755</v>
       </c>
       <c r="H275" t="n">
-        <v>0.1547724604606628</v>
+        <v>0.1580914855003357</v>
       </c>
     </row>
     <row r="276">
@@ -7603,7 +7603,7 @@
         <v>0.35487066</v>
       </c>
       <c r="H276" t="n">
-        <v>0.1548824906349182</v>
+        <v>0.1584774553775787</v>
       </c>
     </row>
     <row r="277">
@@ -7629,7 +7629,7 @@
         <v>0.37288703</v>
       </c>
       <c r="H277" t="n">
-        <v>0.156338706612587</v>
+        <v>0.1598225980997086</v>
       </c>
     </row>
     <row r="278">
@@ -7655,7 +7655,7 @@
         <v>0.40146941</v>
       </c>
       <c r="H278" t="n">
-        <v>0.1596098989248276</v>
+        <v>0.1626430451869965</v>
       </c>
     </row>
     <row r="279">
@@ -7681,7 +7681,7 @@
         <v>0.40457256</v>
       </c>
       <c r="H279" t="n">
-        <v>0.1645195633172989</v>
+        <v>0.1671493202447891</v>
       </c>
     </row>
     <row r="280">
@@ -7707,7 +7707,7 @@
         <v>0.44512151</v>
       </c>
       <c r="H280" t="n">
-        <v>0.1708801835775375</v>
+        <v>0.1733995378017426</v>
       </c>
     </row>
     <row r="281">
@@ -7733,7 +7733,7 @@
         <v>0.43257124</v>
       </c>
       <c r="H281" t="n">
-        <v>0.1786613315343857</v>
+        <v>0.1817105114459991</v>
       </c>
     </row>
     <row r="282">
@@ -7759,7 +7759,7 @@
         <v>0.40781497</v>
       </c>
       <c r="H282" t="n">
-        <v>0.1877146363258362</v>
+        <v>0.191612496972084</v>
       </c>
     </row>
     <row r="283">
@@ -7785,7 +7785,7 @@
         <v>0.40693395</v>
       </c>
       <c r="H283" t="n">
-        <v>0.1973338723182678</v>
+        <v>0.2025690227746964</v>
       </c>
     </row>
     <row r="284">
@@ -7811,7 +7811,7 @@
         <v>0.38336698</v>
       </c>
       <c r="H284" t="n">
-        <v>0.2079952359199524</v>
+        <v>0.2141671031713486</v>
       </c>
     </row>
     <row r="285">
@@ -7837,7 +7837,7 @@
         <v>0.34890694</v>
       </c>
       <c r="H285" t="n">
-        <v>0.2195868045091629</v>
+        <v>0.2258658111095428</v>
       </c>
     </row>
     <row r="286">
@@ -7863,7 +7863,7 @@
         <v>0.34890694</v>
       </c>
       <c r="H286" t="n">
-        <v>0.2311641871929169</v>
+        <v>0.2374645918607712</v>
       </c>
     </row>
     <row r="287">
@@ -7889,7 +7889,7 @@
         <v>0.33499053</v>
       </c>
       <c r="H287" t="n">
-        <v>0.2440737187862396</v>
+        <v>0.2496167123317719</v>
       </c>
     </row>
     <row r="288">
@@ -7915,7 +7915,7 @@
         <v>0.34886625</v>
       </c>
       <c r="H288" t="n">
-        <v>0.2578979730606079</v>
+        <v>0.2633534073829651</v>
       </c>
     </row>
     <row r="289">
@@ -7941,7 +7941,7 @@
         <v>0.37226578</v>
       </c>
       <c r="H289" t="n">
-        <v>0.2735725939273834</v>
+        <v>0.279363751411438</v>
       </c>
     </row>
     <row r="290">
@@ -7967,7 +7967,7 @@
         <v>0.35834937</v>
       </c>
       <c r="H290" t="n">
-        <v>0.2921496331691742</v>
+        <v>0.2982283234596252</v>
       </c>
     </row>
     <row r="291">
@@ -7993,7 +7993,7 @@
         <v>0.4179569</v>
       </c>
       <c r="H291" t="n">
-        <v>0.3153691291809082</v>
+        <v>0.3203356862068176</v>
       </c>
     </row>
     <row r="292">
@@ -8019,7 +8019,7 @@
         <v>0.45230897</v>
       </c>
       <c r="H292" t="n">
-        <v>0.3412014544010162</v>
+        <v>0.3459147810935974</v>
       </c>
     </row>
     <row r="293">
@@ -8045,7 +8045,7 @@
         <v>0.46044161</v>
       </c>
       <c r="H293" t="n">
-        <v>0.3698716759681702</v>
+        <v>0.3739691972732544</v>
       </c>
     </row>
     <row r="294">
@@ -8071,7 +8071,7 @@
         <v>0.44109353</v>
       </c>
       <c r="H294" t="n">
-        <v>0.4017331898212433</v>
+        <v>0.4028135538101196</v>
       </c>
     </row>
     <row r="295">
@@ -8097,7 +8097,7 @@
         <v>0.44312787</v>
       </c>
       <c r="H295" t="n">
-        <v>0.4325916171073914</v>
+        <v>0.431300163269043</v>
       </c>
     </row>
     <row r="296">
@@ -8123,7 +8123,7 @@
         <v>0.46744597</v>
       </c>
       <c r="H296" t="n">
-        <v>0.4627601802349091</v>
+        <v>0.4581187963485718</v>
       </c>
     </row>
     <row r="297">
@@ -8149,7 +8149,7 @@
         <v>0.4468194</v>
       </c>
       <c r="H297" t="n">
-        <v>0.4910422265529633</v>
+        <v>0.4832226634025574</v>
       </c>
     </row>
     <row r="298">
@@ -8175,7 +8175,7 @@
         <v>0.44731546</v>
       </c>
       <c r="H298" t="n">
-        <v>0.5176489949226379</v>
+        <v>0.5056108832359314</v>
       </c>
     </row>
     <row r="299">
@@ -8201,7 +8201,7 @@
         <v>0.48061593</v>
       </c>
       <c r="H299" t="n">
-        <v>0.542470395565033</v>
+        <v>0.5249473452568054</v>
       </c>
     </row>
     <row r="300">
@@ -8227,7 +8227,7 @@
         <v>0.47057572</v>
       </c>
       <c r="H300" t="n">
-        <v>0.5654744505882263</v>
+        <v>0.5414323806762695</v>
       </c>
     </row>
     <row r="301">
@@ -8253,7 +8253,7 @@
         <v>0.45121043</v>
       </c>
       <c r="H301" t="n">
-        <v>0.5863404273986816</v>
+        <v>0.5550674796104431</v>
       </c>
     </row>
     <row r="302">
@@ -8279,7 +8279,7 @@
         <v>0.4399903</v>
       </c>
       <c r="H302" t="n">
-        <v>0.6047211289405823</v>
+        <v>0.5656610727310181</v>
       </c>
     </row>
     <row r="303">
@@ -8305,7 +8305,7 @@
         <v>0.45874842</v>
       </c>
       <c r="H303" t="n">
-        <v>0.6207329630851746</v>
+        <v>0.5735284090042114</v>
       </c>
     </row>
     <row r="304">
@@ -8331,7 +8331,7 @@
         <v>0.48487551</v>
       </c>
       <c r="H304" t="n">
-        <v>0.6348068118095398</v>
+        <v>0.5792058706283569</v>
       </c>
     </row>
     <row r="305">
@@ -8357,7 +8357,7 @@
         <v>0.48585825</v>
       </c>
       <c r="H305" t="n">
-        <v>0.6470634341239929</v>
+        <v>0.5834551453590393</v>
       </c>
     </row>
     <row r="306">
@@ -8383,7 +8383,7 @@
         <v>0.49353864</v>
       </c>
       <c r="H306" t="n">
-        <v>0.6577194929122925</v>
+        <v>0.5862736105918884</v>
       </c>
     </row>
     <row r="307">
@@ -8409,7 +8409,7 @@
         <v>0.53171839</v>
       </c>
       <c r="H307" t="n">
-        <v>0.6667304039001465</v>
+        <v>0.5875906944274902</v>
       </c>
     </row>
     <row r="308">
@@ -8435,7 +8435,7 @@
         <v>0.53169335</v>
       </c>
       <c r="H308" t="n">
-        <v>0.674341082572937</v>
+        <v>0.5879327654838562</v>
       </c>
     </row>
     <row r="309">
@@ -8461,7 +8461,7 @@
         <v>0.52087539</v>
       </c>
       <c r="H309" t="n">
-        <v>0.6803624629974365</v>
+        <v>0.587152361869812</v>
       </c>
     </row>
     <row r="310">
@@ -8487,7 +8487,7 @@
         <v>0.34053078948</v>
       </c>
       <c r="H310" t="n">
-        <v>0.6843905448913574</v>
+        <v>0.5848450660705566</v>
       </c>
     </row>
     <row r="311">
@@ -8513,7 +8513,7 @@
         <v>0.53909989</v>
       </c>
       <c r="H311" t="n">
-        <v>0.6901945471763611</v>
+        <v>0.5810348987579346</v>
       </c>
     </row>
     <row r="312">
@@ -8539,7 +8539,7 @@
         <v>0.55060639</v>
       </c>
       <c r="H312" t="n">
-        <v>0.693640410900116</v>
+        <v>0.5787252187728882</v>
       </c>
     </row>
     <row r="313">
@@ -8565,7 +8565,7 @@
         <v>0.5457678</v>
       </c>
       <c r="H313" t="n">
-        <v>0.6948196291923523</v>
+        <v>0.5758823752403259</v>
       </c>
     </row>
     <row r="314">
@@ -8591,7 +8591,7 @@
         <v>0.5503028</v>
       </c>
       <c r="H314" t="n">
-        <v>0.6935760974884033</v>
+        <v>0.5714141130447388</v>
       </c>
     </row>
     <row r="315">
@@ -8617,7 +8617,7 @@
         <v>0.46127412</v>
       </c>
       <c r="H315" t="n">
-        <v>0.6905425786972046</v>
+        <v>0.5650063753128052</v>
       </c>
     </row>
     <row r="316">
@@ -8643,7 +8643,7 @@
         <v>0.47156315</v>
       </c>
       <c r="H316" t="n">
-        <v>0.6859328150749207</v>
+        <v>0.5558924078941345</v>
       </c>
     </row>
     <row r="317">
@@ -8669,7 +8669,7 @@
         <v>0.47455049</v>
       </c>
       <c r="H317" t="n">
-        <v>0.679919421672821</v>
+        <v>0.545075535774231</v>
       </c>
     </row>
     <row r="318">
@@ -8695,7 +8695,7 @@
         <v>0.50924839</v>
       </c>
       <c r="H318" t="n">
-        <v>0.672827422618866</v>
+        <v>0.5331637859344482</v>
       </c>
     </row>
     <row r="319">
@@ -8721,7 +8721,7 @@
         <v>0.51916968</v>
       </c>
       <c r="H319" t="n">
-        <v>0.6648316383361816</v>
+        <v>0.520780086517334</v>
       </c>
     </row>
     <row r="320">
@@ -8747,7 +8747,7 @@
         <v>0.55463437</v>
       </c>
       <c r="H320" t="n">
-        <v>0.6559414863586426</v>
+        <v>0.5082090497016907</v>
       </c>
     </row>
     <row r="321">
@@ -8773,7 +8773,7 @@
         <v>0.58243901</v>
       </c>
       <c r="H321" t="n">
-        <v>0.6463868618011475</v>
+        <v>0.4956218600273132</v>
       </c>
     </row>
     <row r="322">
@@ -8799,7 +8799,7 @@
         <v>0.5455612399999999</v>
       </c>
       <c r="H322" t="n">
-        <v>0.6349673271179199</v>
+        <v>0.4826923012733459</v>
       </c>
     </row>
     <row r="323">
@@ -8825,7 +8825,7 @@
         <v>0.49425066</v>
       </c>
       <c r="H323" t="n">
-        <v>0.6217062473297119</v>
+        <v>0.4693241715431213</v>
       </c>
     </row>
     <row r="324">
@@ -8851,7 +8851,7 @@
         <v>0.38583791</v>
       </c>
       <c r="H324" t="n">
-        <v>0.6075415015220642</v>
+        <v>0.4548208117485046</v>
       </c>
     </row>
     <row r="325">
@@ -8877,7 +8877,7 @@
         <v>0.33209083</v>
       </c>
       <c r="H325" t="n">
-        <v>0.5933691263198853</v>
+        <v>0.4386512637138367</v>
       </c>
     </row>
     <row r="326">
@@ -8903,7 +8903,7 @@
         <v>0.26627701</v>
       </c>
       <c r="H326" t="n">
-        <v>0.5809091925621033</v>
+        <v>0.4211487174034119</v>
       </c>
     </row>
     <row r="327">
@@ -8929,7 +8929,7 @@
         <v>0.30655525</v>
       </c>
       <c r="H327" t="n">
-        <v>0.5717083215713501</v>
+        <v>0.4044058918952942</v>
       </c>
     </row>
     <row r="328">
@@ -8955,7 +8955,7 @@
         <v>0.3365343261</v>
       </c>
       <c r="H328" t="n">
-        <v>0.5666362643241882</v>
+        <v>0.3908163905143738</v>
       </c>
     </row>
     <row r="329">
@@ -8981,7 +8981,7 @@
         <v>0.43690437</v>
       </c>
       <c r="H329" t="n">
-        <v>0.5686850547790527</v>
+        <v>0.3830422163009644</v>
       </c>
     </row>
     <row r="330">
@@ -9007,7 +9007,7 @@
         <v>0.51899754</v>
       </c>
       <c r="H330" t="n">
-        <v>0.5764926075935364</v>
+        <v>0.383033275604248</v>
       </c>
     </row>
     <row r="331">
@@ -9033,7 +9033,7 @@
         <v>0.71332175</v>
       </c>
       <c r="H331" t="n">
-        <v>0.5882083773612976</v>
+        <v>0.3915916681289673</v>
       </c>
     </row>
     <row r="332">
@@ -9059,7 +9059,7 @@
         <v>0.79418963</v>
       </c>
       <c r="H332" t="n">
-        <v>0.6024640798568726</v>
+        <v>0.4075328707695007</v>
       </c>
     </row>
     <row r="333">
@@ -9085,7 +9085,7 @@
         <v>0.47170372267</v>
       </c>
       <c r="H333" t="n">
-        <v>0.6157480478286743</v>
+        <v>0.4271084070205688</v>
       </c>
     </row>
     <row r="334">
@@ -9111,7 +9111,7 @@
         <v>0.87682425</v>
       </c>
       <c r="H334" t="n">
-        <v>0.6195524930953979</v>
+        <v>0.4478747248649597</v>
       </c>
     </row>
     <row r="335">
@@ -9137,7 +9137,7 @@
         <v>0.87927171</v>
       </c>
       <c r="H335" t="n">
-        <v>0.6162607669830322</v>
+        <v>0.4624422788619995</v>
       </c>
     </row>
     <row r="336">
@@ -9163,7 +9163,7 @@
         <v>0.79796254</v>
       </c>
       <c r="H336" t="n">
-        <v>0.6076173186302185</v>
+        <v>0.4699751138687134</v>
       </c>
     </row>
     <row r="337">
@@ -9189,7 +9189,7 @@
         <v>0.77230333</v>
       </c>
       <c r="H337" t="n">
-        <v>0.5955590009689331</v>
+        <v>0.4696499705314636</v>
       </c>
     </row>
     <row r="338">
@@ -9215,7 +9215,7 @@
         <v>0.73021454</v>
       </c>
       <c r="H338" t="n">
-        <v>0.5800613164901733</v>
+        <v>0.4628397822380066</v>
       </c>
     </row>
     <row r="339">
@@ -9241,7 +9241,7 @@
         <v>0.74289783</v>
       </c>
       <c r="H339" t="n">
-        <v>0.5620050430297852</v>
+        <v>0.4512351155281067</v>
       </c>
     </row>
     <row r="340">
@@ -9267,7 +9267,7 @@
         <v>0.69394708</v>
       </c>
       <c r="H340" t="n">
-        <v>0.5417643189430237</v>
+        <v>0.4367322325706482</v>
       </c>
     </row>
     <row r="341">
@@ -9293,7 +9293,7 @@
         <v>0.64960331</v>
       </c>
       <c r="H341" t="n">
-        <v>0.5201038718223572</v>
+        <v>0.421175479888916</v>
       </c>
     </row>
     <row r="342">
@@ -9319,7 +9319,7 @@
         <v>0.61257061</v>
       </c>
       <c r="H342" t="n">
-        <v>0.4978677332401276</v>
+        <v>0.4030623435974121</v>
       </c>
     </row>
     <row r="343">
@@ -9345,7 +9345,7 @@
         <v>0.6133984300000001</v>
       </c>
       <c r="H343" t="n">
-        <v>0.4758782088756561</v>
+        <v>0.3843547701835632</v>
       </c>
     </row>
     <row r="344">
@@ -9371,7 +9371,7 @@
         <v>0.61422781</v>
       </c>
       <c r="H344" t="n">
-        <v>0.4548144936561584</v>
+        <v>0.3660202622413635</v>
       </c>
     </row>
     <row r="345">
@@ -9397,7 +9397,7 @@
         <v>0.6197408599999999</v>
       </c>
       <c r="H345" t="n">
-        <v>0.4352563619613647</v>
+        <v>0.3490329384803772</v>
       </c>
     </row>
     <row r="346">
@@ -9423,7 +9423,7 @@
         <v>0.65483311</v>
       </c>
       <c r="H346" t="n">
-        <v>0.4166547358036041</v>
+        <v>0.3338794708251953</v>
       </c>
     </row>
     <row r="347">
@@ -9449,7 +9449,7 @@
         <v>0.70989625</v>
       </c>
       <c r="H347" t="n">
-        <v>0.3978350460529327</v>
+        <v>0.3209865093231201</v>
       </c>
     </row>
     <row r="348">
@@ -9475,7 +9475,7 @@
         <v>0.69931928</v>
       </c>
       <c r="H348" t="n">
-        <v>0.3805061876773834</v>
+        <v>0.3106845617294312</v>
       </c>
     </row>
     <row r="349">
@@ -9501,7 +9501,7 @@
         <v>0.68063784</v>
       </c>
       <c r="H349" t="n">
-        <v>0.3639372885227203</v>
+        <v>0.3026483654975891</v>
       </c>
     </row>
     <row r="350">
@@ -9527,7 +9527,7 @@
         <v>0.67946575</v>
       </c>
       <c r="H350" t="n">
-        <v>0.3483907878398895</v>
+        <v>0.2958690524101257</v>
       </c>
     </row>
     <row r="351">
@@ -9553,7 +9553,7 @@
         <v>0.65546062</v>
       </c>
       <c r="H351" t="n">
-        <v>0.3345314562320709</v>
+        <v>0.2898237705230713</v>
       </c>
     </row>
     <row r="352">
@@ -9579,7 +9579,7 @@
         <v>0.69652755</v>
       </c>
       <c r="H352" t="n">
-        <v>0.3224205672740936</v>
+        <v>0.2837815284729004</v>
       </c>
     </row>
     <row r="353">
@@ -9605,7 +9605,7 @@
         <v>0.76554309</v>
       </c>
       <c r="H353" t="n">
-        <v>0.3111120164394379</v>
+        <v>0.278047502040863</v>
       </c>
     </row>
     <row r="354">
@@ -9631,7 +9631,7 @@
         <v>0.79379998</v>
       </c>
       <c r="H354" t="n">
-        <v>0.2998692393302917</v>
+        <v>0.2729682922363281</v>
       </c>
     </row>
     <row r="355">
@@ -9657,7 +9657,7 @@
         <v>0.84588204</v>
       </c>
       <c r="H355" t="n">
-        <v>0.2884775996208191</v>
+        <v>0.2686195969581604</v>
       </c>
     </row>
     <row r="356">
@@ -9683,7 +9683,7 @@
         <v>0.84840931</v>
       </c>
       <c r="H356" t="n">
-        <v>0.2775683999061584</v>
+        <v>0.2648155689239502</v>
       </c>
     </row>
     <row r="357">
@@ -9709,7 +9709,7 @@
         <v>0.82355914</v>
       </c>
       <c r="H357" t="n">
-        <v>0.2685533761978149</v>
+        <v>0.2611734867095947</v>
       </c>
     </row>
     <row r="358">
@@ -9735,7 +9735,7 @@
         <v>0.76988561</v>
       </c>
       <c r="H358" t="n">
-        <v>0.2600815296173096</v>
+        <v>0.2575057446956635</v>
       </c>
     </row>
     <row r="359">
@@ -9761,7 +9761,7 @@
         <v>0.72948375</v>
       </c>
       <c r="H359" t="n">
-        <v>0.2518858015537262</v>
+        <v>0.2527995705604553</v>
       </c>
     </row>
     <row r="360">
@@ -9787,7 +9787,7 @@
         <v>0.66934103</v>
       </c>
       <c r="H360" t="n">
-        <v>0.2443876266479492</v>
+        <v>0.2460779398679733</v>
       </c>
     </row>
     <row r="361">
@@ -9813,7 +9813,7 @@
         <v>0.65108524</v>
       </c>
       <c r="H361" t="n">
-        <v>0.2361380308866501</v>
+        <v>0.2372439652681351</v>
       </c>
     </row>
     <row r="362">
@@ -9839,7 +9839,7 @@
         <v>0.63489977</v>
       </c>
       <c r="H362" t="n">
-        <v>0.2269789725542068</v>
+        <v>0.2265941947698593</v>
       </c>
     </row>
     <row r="363">
@@ -9865,7 +9865,7 @@
         <v>0.6102874700000001</v>
       </c>
       <c r="H363" t="n">
-        <v>0.2167539000511169</v>
+        <v>0.2152294218540192</v>
       </c>
     </row>
     <row r="364">
@@ -9891,7 +9891,7 @@
         <v>0.56217705</v>
       </c>
       <c r="H364" t="n">
-        <v>0.204222559928894</v>
+        <v>0.2029453366994858</v>
       </c>
     </row>
     <row r="365">
@@ -9917,7 +9917,7 @@
         <v>0.51700546</v>
       </c>
       <c r="H365" t="n">
-        <v>0.1909421235322952</v>
+        <v>0.1920283585786819</v>
       </c>
     </row>
     <row r="366">
@@ -9943,7 +9943,7 @@
         <v>0.47014381</v>
       </c>
       <c r="H366" t="n">
-        <v>0.1770589500665665</v>
+        <v>0.1825065910816193</v>
       </c>
     </row>
     <row r="367">
@@ -9969,7 +9969,7 @@
         <v>0.43700296</v>
       </c>
       <c r="H367" t="n">
-        <v>0.1657885760068893</v>
+        <v>0.1755009293556213</v>
       </c>
     </row>
     <row r="368">
@@ -9995,7 +9995,7 @@
         <v>0.40409996</v>
       </c>
       <c r="H368" t="n">
-        <v>0.1576026678085327</v>
+        <v>0.1728092581033707</v>
       </c>
     </row>
     <row r="369">
@@ -10021,7 +10021,7 @@
         <v>0.38197581</v>
       </c>
       <c r="H369" t="n">
-        <v>0.1523950397968292</v>
+        <v>0.1755601614713669</v>
       </c>
     </row>
     <row r="370">
@@ -10047,7 +10047,7 @@
         <v>0.41494922</v>
       </c>
       <c r="H370" t="n">
-        <v>0.1513487696647644</v>
+        <v>0.1854061633348465</v>
       </c>
     </row>
     <row r="371">
@@ -10073,7 +10073,7 @@
         <v>0.40619063</v>
       </c>
       <c r="H371" t="n">
-        <v>0.1587638854980469</v>
+        <v>0.2053889781236649</v>
       </c>
     </row>
     <row r="372">
@@ -10099,7 +10099,7 @@
         <v>0.39810807</v>
       </c>
       <c r="H372" t="n">
-        <v>0.1761943250894547</v>
+        <v>0.2357600629329681</v>
       </c>
     </row>
     <row r="373">
@@ -10125,7 +10125,7 @@
         <v>0.37404191</v>
       </c>
       <c r="H373" t="n">
-        <v>0.2027236521244049</v>
+        <v>0.2764299213886261</v>
       </c>
     </row>
     <row r="374">
@@ -10151,7 +10151,7 @@
         <v>0.37897908</v>
       </c>
       <c r="H374" t="n">
-        <v>0.2309479266405106</v>
+        <v>0.3265169858932495</v>
       </c>
     </row>
     <row r="375">
@@ -10177,7 +10177,7 @@
         <v>0.35973116</v>
       </c>
       <c r="H375" t="n">
-        <v>0.2650861740112305</v>
+        <v>0.3850723505020142</v>
       </c>
     </row>
     <row r="376">
@@ -10203,7 +10203,7 @@
         <v>0.39099886</v>
       </c>
       <c r="H376" t="n">
-        <v>0.3020738661289215</v>
+        <v>0.45085209608078</v>
       </c>
     </row>
     <row r="377">
@@ -10229,7 +10229,7 @@
         <v>0.41590066</v>
       </c>
       <c r="H377" t="n">
-        <v>0.3443813025951385</v>
+        <v>0.5221750736236572</v>
       </c>
     </row>
     <row r="378">
@@ -10255,7 +10255,7 @@
         <v>0.40917015</v>
       </c>
       <c r="H378" t="n">
-        <v>0.3960144221782684</v>
+        <v>0.5982065200805664</v>
       </c>
     </row>
     <row r="379">
@@ -10281,7 +10281,7 @@
         <v>0.41041266</v>
       </c>
       <c r="H379" t="n">
-        <v>0.4537153542041779</v>
+        <v>0.6768178343772888</v>
       </c>
     </row>
     <row r="380">
@@ -10307,7 +10307,7 @@
         <v>0.39048558</v>
       </c>
       <c r="H380" t="n">
-        <v>0.5125781297683716</v>
+        <v>0.7573948502540588</v>
       </c>
     </row>
     <row r="381">
@@ -10333,7 +10333,7 @@
         <v>0.46694834</v>
       </c>
       <c r="H381" t="n">
-        <v>0.5717753767967224</v>
+        <v>0.8382531404495239</v>
       </c>
     </row>
     <row r="382">
@@ -10359,7 +10359,7 @@
         <v>0.4631238</v>
       </c>
       <c r="H382" t="n">
-        <v>0.628751277923584</v>
+        <v>0.9180052280426025</v>
       </c>
     </row>
     <row r="383">
@@ -10385,7 +10385,7 @@
         <v>0.47883511</v>
       </c>
       <c r="H383" t="n">
-        <v>0.6833257675170898</v>
+        <v>0.9939915537834167</v>
       </c>
     </row>
     <row r="384">
@@ -10411,7 +10411,7 @@
         <v>0.50598407</v>
       </c>
       <c r="H384" t="n">
-        <v>0.7348648905754089</v>
+        <v>1.064124941825867</v>
       </c>
     </row>
     <row r="385">
@@ -10437,7 +10437,7 @@
         <v>0.46776677</v>
       </c>
       <c r="H385" t="n">
-        <v>0.7811900973320007</v>
+        <v>1.126820087432861</v>
       </c>
     </row>
     <row r="386">
@@ -10463,7 +10463,7 @@
         <v>0.49084394</v>
       </c>
       <c r="H386" t="n">
-        <v>0.8225855231285095</v>
+        <v>1.180263519287109</v>
       </c>
     </row>
     <row r="387">
@@ -10489,7 +10489,7 @@
         <v>0.50034427</v>
       </c>
       <c r="H387" t="n">
-        <v>0.8597975373268127</v>
+        <v>1.22444224357605</v>
       </c>
     </row>
     <row r="388">
@@ -10515,7 +10515,7 @@
         <v>0.5441153</v>
       </c>
       <c r="H388" t="n">
-        <v>0.8920505046844482</v>
+        <v>1.259507536888123</v>
       </c>
     </row>
     <row r="389">
@@ -10541,7 +10541,7 @@
         <v>0.55981879</v>
       </c>
       <c r="H389" t="n">
-        <v>0.9193332195281982</v>
+        <v>1.285582184791565</v>
       </c>
     </row>
     <row r="390">
@@ -10567,7 +10567,7 @@
         <v>0.5464015800000001</v>
       </c>
       <c r="H390" t="n">
-        <v>0.9415732026100159</v>
+        <v>1.302652716636658</v>
       </c>
     </row>
     <row r="391">
@@ -10593,7 +10593,7 @@
         <v>0.60237235</v>
       </c>
       <c r="H391" t="n">
-        <v>0.9575883150100708</v>
+        <v>1.310713768005371</v>
       </c>
     </row>
     <row r="392">
@@ -10619,7 +10619,7 @@
         <v>0.62214294</v>
       </c>
       <c r="H392" t="n">
-        <v>0.966920793056488</v>
+        <v>1.310439944267273</v>
       </c>
     </row>
     <row r="393">
@@ -10645,7 +10645,7 @@
         <v>0.62871696</v>
       </c>
       <c r="H393" t="n">
-        <v>0.9686067700386047</v>
+        <v>1.300776243209839</v>
       </c>
     </row>
     <row r="394">
@@ -10671,7 +10671,7 @@
         <v>0.63824703</v>
       </c>
       <c r="H394" t="n">
-        <v>0.9631398916244507</v>
+        <v>1.282436609268188</v>
       </c>
     </row>
     <row r="395">
@@ -10697,7 +10697,7 @@
         <v>0.65239817</v>
       </c>
       <c r="H395" t="n">
-        <v>0.9519874453544617</v>
+        <v>1.256061553955078</v>
       </c>
     </row>
     <row r="396">
@@ -10723,7 +10723,7 @@
         <v>0.70256326</v>
       </c>
       <c r="H396" t="n">
-        <v>0.9349170327186584</v>
+        <v>1.222407102584839</v>
       </c>
     </row>
     <row r="397">
@@ -10749,7 +10749,7 @@
         <v>0.73752406</v>
       </c>
       <c r="H397" t="n">
-        <v>0.912156879901886</v>
+        <v>1.183586120605469</v>
       </c>
     </row>
     <row r="398">
@@ -10775,7 +10775,7 @@
         <v>0.74085567</v>
       </c>
       <c r="H398" t="n">
-        <v>0.8846985697746277</v>
+        <v>1.140560150146484</v>
       </c>
     </row>
     <row r="399">
@@ -10801,7 +10801,7 @@
         <v>0.67939846</v>
       </c>
       <c r="H399" t="n">
-        <v>0.8529481887817383</v>
+        <v>1.093252420425415</v>
       </c>
     </row>
     <row r="400">
@@ -10827,7 +10827,7 @@
         <v>0.69757758</v>
       </c>
       <c r="H400" t="n">
-        <v>0.8162004351615906</v>
+        <v>1.041992664337158</v>
       </c>
     </row>
     <row r="401">
@@ -10853,7 +10853,7 @@
         <v>0.73369638</v>
       </c>
       <c r="H401" t="n">
-        <v>0.7750259637832642</v>
+        <v>0.9885863065719604</v>
       </c>
     </row>
     <row r="402">
@@ -10879,7 +10879,7 @@
         <v>0.69118977</v>
       </c>
       <c r="H402" t="n">
-        <v>0.7304295301437378</v>
+        <v>0.9340943694114685</v>
       </c>
     </row>
     <row r="403">
@@ -10905,7 +10905,7 @@
         <v>0.70613743</v>
       </c>
       <c r="H403" t="n">
-        <v>0.6827617883682251</v>
+        <v>0.8787297606468201</v>
       </c>
     </row>
     <row r="404">
@@ -10931,7 +10931,7 @@
         <v>0.67383847</v>
       </c>
       <c r="H404" t="n">
-        <v>0.6325540542602539</v>
+        <v>0.8228288888931274</v>
       </c>
     </row>
     <row r="405">
@@ -10957,7 +10957,7 @@
         <v>0.67681642</v>
       </c>
       <c r="H405" t="n">
-        <v>0.5834280252456665</v>
+        <v>0.7669522762298584</v>
       </c>
     </row>
     <row r="406">
@@ -10983,7 +10983,7 @@
         <v>0.69445879</v>
       </c>
       <c r="H406" t="n">
-        <v>0.5343297719955444</v>
+        <v>0.7129999399185181</v>
       </c>
     </row>
     <row r="407">
@@ -11009,7 +11009,7 @@
         <v>0.66110981</v>
       </c>
       <c r="H407" t="n">
-        <v>0.4866189658641815</v>
+        <v>0.6616589426994324</v>
       </c>
     </row>
     <row r="408">
@@ -11035,7 +11035,7 @@
         <v>0.60513904</v>
       </c>
       <c r="H408" t="n">
-        <v>0.4411945939064026</v>
+        <v>0.6123990416526794</v>
       </c>
     </row>
     <row r="409">
@@ -11061,7 +11061,7 @@
         <v>0.60727352</v>
       </c>
       <c r="H409" t="n">
-        <v>0.3997167646884918</v>
+        <v>0.5654022693634033</v>
       </c>
     </row>
     <row r="410">
@@ -11087,7 +11087,7 @@
         <v>0.57380718</v>
       </c>
       <c r="H410" t="n">
-        <v>0.3597025871276855</v>
+        <v>0.5211004018783569</v>
       </c>
     </row>
     <row r="411">
@@ -11113,7 +11113,7 @@
         <v>0.6154359</v>
       </c>
       <c r="H411" t="n">
-        <v>0.3281860649585724</v>
+        <v>0.48052978515625</v>
       </c>
     </row>
     <row r="412">
@@ -11139,7 +11139,7 @@
         <v>0.59771529</v>
       </c>
       <c r="H412" t="n">
-        <v>0.3039848506450653</v>
+        <v>0.4433597326278687</v>
       </c>
     </row>
     <row r="413">
@@ -11165,7 +11165,7 @@
         <v>0.54502293</v>
       </c>
       <c r="H413" t="n">
-        <v>0.2826025485992432</v>
+        <v>0.4093992710113525</v>
       </c>
     </row>
     <row r="414">
@@ -11191,7 +11191,7 @@
         <v>0.5223495</v>
       </c>
       <c r="H414" t="n">
-        <v>0.267547607421875</v>
+        <v>0.3783859014511108</v>
       </c>
     </row>
     <row r="415">
@@ -11217,7 +11217,7 @@
         <v>0.49574511</v>
       </c>
       <c r="H415" t="n">
-        <v>0.2540605068206787</v>
+        <v>0.3499864935874939</v>
       </c>
     </row>
     <row r="416">
@@ -11243,7 +11243,7 @@
         <v>0.40854889</v>
       </c>
       <c r="H416" t="n">
-        <v>0.2396278977394104</v>
+        <v>0.3235109448432922</v>
       </c>
     </row>
     <row r="417">
@@ -11269,7 +11269,7 @@
         <v>0.3405114</v>
       </c>
       <c r="H417" t="n">
-        <v>0.2247127443552017</v>
+        <v>0.2984856367111206</v>
       </c>
     </row>
     <row r="418">
@@ -11295,7 +11295,7 @@
         <v>0.35014945</v>
       </c>
       <c r="H418" t="n">
-        <v>0.210339680314064</v>
+        <v>0.2756649255752563</v>
       </c>
     </row>
     <row r="419">
@@ -11321,7 +11321,7 @@
         <v>0.32782498</v>
       </c>
       <c r="H419" t="n">
-        <v>0.1963714212179184</v>
+        <v>0.2556127309799194</v>
       </c>
     </row>
     <row r="420">
@@ -11347,7 +11347,7 @@
         <v>0.33366822</v>
       </c>
       <c r="H420" t="n">
-        <v>0.1822520792484283</v>
+        <v>0.2385811358690262</v>
       </c>
     </row>
     <row r="421">
@@ -11373,7 +11373,7 @@
         <v>0.41346885</v>
       </c>
       <c r="H421" t="n">
-        <v>0.1714647561311722</v>
+        <v>0.2253331989049911</v>
       </c>
     </row>
     <row r="422">
@@ -11399,7 +11399,7 @@
         <v>0.44234543</v>
       </c>
       <c r="H422" t="n">
-        <v>0.1643824279308319</v>
+        <v>0.2172260135412216</v>
       </c>
     </row>
     <row r="423">
@@ -11425,7 +11425,7 @@
         <v>0.46974477</v>
       </c>
       <c r="H423" t="n">
-        <v>0.1618101447820663</v>
+        <v>0.214261382818222</v>
       </c>
     </row>
     <row r="424">
@@ -11451,7 +11451,7 @@
         <v>0.43331768</v>
       </c>
       <c r="H424" t="n">
-        <v>0.1646982878446579</v>
+        <v>0.2161947041749954</v>
       </c>
     </row>
     <row r="425">
@@ -11477,7 +11477,7 @@
         <v>0.48558597</v>
       </c>
       <c r="H425" t="n">
-        <v>0.1727163046598434</v>
+        <v>0.223009467124939</v>
       </c>
     </row>
     <row r="426">
@@ -11503,7 +11503,7 @@
         <v>0.49059825</v>
       </c>
       <c r="H426" t="n">
-        <v>0.1849908083677292</v>
+        <v>0.2353460937738419</v>
       </c>
     </row>
     <row r="427">
@@ -11529,7 +11529,7 @@
         <v>0.48718839</v>
       </c>
       <c r="H427" t="n">
-        <v>0.2028431296348572</v>
+        <v>0.2525775134563446</v>
       </c>
     </row>
     <row r="428">
@@ -11555,7 +11555,7 @@
         <v>0.45491291</v>
       </c>
       <c r="H428" t="n">
-        <v>0.2218150049448013</v>
+        <v>0.2734434902667999</v>
       </c>
     </row>
     <row r="429">
@@ -11581,7 +11581,7 @@
         <v>0.4386746937</v>
       </c>
       <c r="H429" t="n">
-        <v>0.2421749234199524</v>
+        <v>0.2961884737014771</v>
       </c>
     </row>
     <row r="430">
@@ -11607,7 +11607,7 @@
         <v>0.42142466</v>
       </c>
       <c r="H430" t="n">
-        <v>0.2637676596641541</v>
+        <v>0.3200783133506775</v>
       </c>
     </row>
     <row r="431">
@@ -11633,7 +11633,7 @@
         <v>0.38866876</v>
       </c>
       <c r="H431" t="n">
-        <v>0.2881969809532166</v>
+        <v>0.34394770860672</v>
       </c>
     </row>
     <row r="432">
@@ -11659,7 +11659,7 @@
         <v>0.38866876</v>
       </c>
       <c r="H432" t="n">
-        <v>0.3119529485702515</v>
+        <v>0.3676133751869202</v>
       </c>
     </row>
     <row r="433">
@@ -11685,7 +11685,7 @@
         <v>0.35387697</v>
       </c>
       <c r="H433" t="n">
-        <v>0.3372911214828491</v>
+        <v>0.3916086554527283</v>
       </c>
     </row>
     <row r="434">
@@ -11711,7 +11711,7 @@
         <v>0.35387697</v>
       </c>
       <c r="H434" t="n">
-        <v>0.3663797974586487</v>
+        <v>0.4163217544555664</v>
       </c>
     </row>
     <row r="435">
@@ -11737,7 +11737,7 @@
         <v>0.31660016</v>
       </c>
       <c r="H435" t="n">
-        <v>0.3963926732540131</v>
+        <v>0.442330539226532</v>
       </c>
     </row>
     <row r="436">
@@ -11763,7 +11763,7 @@
         <v>0.32948844</v>
       </c>
       <c r="H436" t="n">
-        <v>0.4288960695266724</v>
+        <v>0.4701462984085083</v>
       </c>
     </row>
     <row r="437">
@@ -11789,7 +11789,7 @@
         <v>0.3936388</v>
       </c>
       <c r="H437" t="n">
-        <v>0.4616339504718781</v>
+        <v>0.500343382358551</v>
       </c>
     </row>
     <row r="438">
@@ -11815,7 +11815,7 @@
         <v>0.39068745</v>
       </c>
       <c r="H438" t="n">
-        <v>0.4938365519046783</v>
+        <v>0.5325509309768677</v>
       </c>
     </row>
     <row r="439">
@@ -11841,7 +11841,7 @@
         <v>0.38695836</v>
       </c>
       <c r="H439" t="n">
-        <v>0.5253753066062927</v>
+        <v>0.5657504796981812</v>
       </c>
     </row>
     <row r="440">
@@ -11867,7 +11867,7 @@
         <v>0.40585575</v>
       </c>
       <c r="H440" t="n">
-        <v>0.5560122132301331</v>
+        <v>0.5991506576538086</v>
       </c>
     </row>
     <row r="441">
@@ -11893,7 +11893,7 @@
         <v>0.43448821</v>
       </c>
       <c r="H441" t="n">
-        <v>0.584854781627655</v>
+        <v>0.6316123008728027</v>
       </c>
     </row>
     <row r="442">
@@ -11919,7 +11919,7 @@
         <v>0.42111794</v>
       </c>
       <c r="H442" t="n">
-        <v>0.611906111240387</v>
+        <v>0.6627776622772217</v>
       </c>
     </row>
     <row r="443">
@@ -11945,7 +11945,7 @@
         <v>0.43918439</v>
       </c>
       <c r="H443" t="n">
-        <v>0.6364025473594666</v>
+        <v>0.6916123628616333</v>
       </c>
     </row>
     <row r="444">
@@ -11971,7 +11971,7 @@
         <v>0.43286857</v>
       </c>
       <c r="H444" t="n">
-        <v>0.6590601205825806</v>
+        <v>0.7177018523216248</v>
       </c>
     </row>
     <row r="445">
@@ -11997,7 +11997,7 @@
         <v>0.45639328</v>
       </c>
       <c r="H445" t="n">
-        <v>0.6788865923881531</v>
+        <v>0.7404162287712097</v>
       </c>
     </row>
     <row r="446">
@@ -12023,7 +12023,7 @@
         <v>0.4778821</v>
       </c>
       <c r="H446" t="n">
-        <v>0.6955714225769043</v>
+        <v>0.7599150538444519</v>
       </c>
     </row>
     <row r="447">
@@ -12049,7 +12049,7 @@
         <v>0.519093</v>
       </c>
       <c r="H447" t="n">
-        <v>0.7094075083732605</v>
+        <v>0.7764458656311035</v>
       </c>
     </row>
     <row r="448">
@@ -12075,7 +12075,7 @@
         <v>0.48818209</v>
       </c>
       <c r="H448" t="n">
-        <v>0.7210736870765686</v>
+        <v>0.7895663380622864</v>
       </c>
     </row>
     <row r="449">
@@ -12101,7 +12101,7 @@
         <v>0.50806222</v>
       </c>
       <c r="H449" t="n">
-        <v>0.730177104473114</v>
+        <v>0.7989087104797363</v>
       </c>
     </row>
     <row r="450">
@@ -12127,7 +12127,7 @@
         <v>0.5127005</v>
       </c>
       <c r="H450" t="n">
-        <v>0.7360826730728149</v>
+        <v>0.8052117824554443</v>
       </c>
     </row>
     <row r="451">
@@ -12153,7 +12153,7 @@
         <v>0.54544857</v>
       </c>
       <c r="H451" t="n">
-        <v>0.7390353083610535</v>
+        <v>0.8083007335662842</v>
       </c>
     </row>
     <row r="452">
@@ -12179,7 +12179,7 @@
         <v>0.57708715</v>
       </c>
       <c r="H452" t="n">
-        <v>0.7388546466827393</v>
+        <v>0.8080927729606628</v>
       </c>
     </row>
     <row r="453">
@@ -12205,7 +12205,7 @@
         <v>0.58153921</v>
       </c>
       <c r="H453" t="n">
-        <v>0.7350987792015076</v>
+        <v>0.8048718571662903</v>
       </c>
     </row>
     <row r="454">
@@ -12231,7 +12231,7 @@
         <v>0.57267264</v>
       </c>
       <c r="H454" t="n">
-        <v>0.7283346652984619</v>
+        <v>0.7979638576507568</v>
       </c>
     </row>
     <row r="455">
@@ -12257,7 +12257,7 @@
         <v>0.50538472</v>
       </c>
       <c r="H455" t="n">
-        <v>0.719936728477478</v>
+        <v>0.787319540977478</v>
       </c>
     </row>
     <row r="456">
@@ -12283,7 +12283,7 @@
         <v>0.52231977</v>
       </c>
       <c r="H456" t="n">
-        <v>0.7092313766479492</v>
+        <v>0.7723976969718933</v>
       </c>
     </row>
     <row r="457">
@@ -12309,7 +12309,7 @@
         <v>0.55053127</v>
       </c>
       <c r="H457" t="n">
-        <v>0.6968913674354553</v>
+        <v>0.7544030547142029</v>
       </c>
     </row>
     <row r="458">
@@ -12335,7 +12335,7 @@
         <v>0.54421545</v>
       </c>
       <c r="H458" t="n">
-        <v>0.6833396553993225</v>
+        <v>0.734684944152832</v>
       </c>
     </row>
     <row r="459">
@@ -12361,7 +12361,7 @@
         <v>0.55231523</v>
       </c>
       <c r="H459" t="n">
-        <v>0.6688022017478943</v>
+        <v>0.713805615901947</v>
       </c>
     </row>
     <row r="460">
@@ -12387,7 +12387,7 @@
         <v>0.55516955</v>
       </c>
       <c r="H460" t="n">
-        <v>0.6535793542861938</v>
+        <v>0.692466139793396</v>
       </c>
     </row>
     <row r="461">
@@ -12413,7 +12413,7 @@
         <v>0.57555044</v>
       </c>
       <c r="H461" t="n">
-        <v>0.6377005577087402</v>
+        <v>0.6709699034690857</v>
       </c>
     </row>
     <row r="462">
@@ -12439,7 +12439,7 @@
         <v>0.5184310600000001</v>
       </c>
       <c r="H462" t="n">
-        <v>0.6217111349105835</v>
+        <v>0.649639904499054</v>
       </c>
     </row>
     <row r="463">
@@ -12465,7 +12465,7 @@
         <v>0.54119055</v>
       </c>
       <c r="H463" t="n">
-        <v>0.6056745052337646</v>
+        <v>0.6282559037208557</v>
       </c>
     </row>
     <row r="464">
@@ -12491,7 +12491,7 @@
         <v>0.54895701</v>
       </c>
       <c r="H464" t="n">
-        <v>0.5895801782608032</v>
+        <v>0.6074056029319763</v>
       </c>
     </row>
     <row r="465">
@@ -12517,7 +12517,7 @@
         <v>0.43667688707</v>
       </c>
       <c r="H465" t="n">
-        <v>0.5736929774284363</v>
+        <v>0.5874515771865845</v>
       </c>
     </row>
     <row r="466">
@@ -12543,7 +12543,7 @@
         <v>0.53330047</v>
       </c>
       <c r="H466" t="n">
-        <v>0.5579208135604858</v>
+        <v>0.5674642324447632</v>
       </c>
     </row>
     <row r="467">
@@ -12569,7 +12569,7 @@
         <v>0.50596842</v>
       </c>
       <c r="H467" t="n">
-        <v>0.5428966283798218</v>
+        <v>0.5482422113418579</v>
       </c>
     </row>
     <row r="468">
@@ -12595,7 +12595,7 @@
         <v>0.48843716</v>
       </c>
       <c r="H468" t="n">
-        <v>0.5289366245269775</v>
+        <v>0.5298418402671814</v>
       </c>
     </row>
     <row r="469">
@@ -12621,7 +12621,7 @@
         <v>0.48001502</v>
       </c>
       <c r="H469" t="n">
-        <v>0.5163675546646118</v>
+        <v>0.5127251744270325</v>
       </c>
     </row>
     <row r="470">
@@ -12647,7 +12647,7 @@
         <v>0.45515703</v>
       </c>
       <c r="H470" t="n">
-        <v>0.5051143169403076</v>
+        <v>0.497107207775116</v>
       </c>
     </row>
     <row r="471">
@@ -12673,7 +12673,7 @@
         <v>0.42425551</v>
       </c>
       <c r="H471" t="n">
-        <v>0.4966006278991699</v>
+        <v>0.4830079674720764</v>
       </c>
     </row>
     <row r="472">
@@ -12699,7 +12699,7 @@
         <v>0.40250223</v>
       </c>
       <c r="H472" t="n">
-        <v>0.4908930957317352</v>
+        <v>0.4714816212654114</v>
       </c>
     </row>
     <row r="473">
@@ -12725,7 +12725,7 @@
         <v>0.43453828</v>
       </c>
       <c r="H473" t="n">
-        <v>0.4873319566249847</v>
+        <v>0.4630107283592224</v>
       </c>
     </row>
     <row r="474">
@@ -12751,7 +12751,7 @@
         <v>0.41411514</v>
       </c>
       <c r="H474" t="n">
-        <v>0.4859458208084106</v>
+        <v>0.458008348941803</v>
       </c>
     </row>
     <row r="475">
@@ -12777,7 +12777,7 @@
         <v>0.37313428</v>
       </c>
       <c r="H475" t="n">
-        <v>0.4874297976493835</v>
+        <v>0.456371009349823</v>
       </c>
     </row>
     <row r="476">
@@ -12803,7 +12803,7 @@
         <v>0.42130886</v>
       </c>
       <c r="H476" t="n">
-        <v>0.4925184547901154</v>
+        <v>0.458293616771698</v>
       </c>
     </row>
     <row r="477">
@@ -12829,7 +12829,7 @@
         <v>0.49719731</v>
       </c>
       <c r="H477" t="n">
-        <v>0.4986829161643982</v>
+        <v>0.4645286798477173</v>
       </c>
     </row>
     <row r="478">
@@ -12855,7 +12855,7 @@
         <v>0.56069355</v>
       </c>
       <c r="H478" t="n">
-        <v>0.50511634349823</v>
+        <v>0.474926769733429</v>
       </c>
     </row>
     <row r="479">
@@ -12881,7 +12881,7 @@
         <v>0.56395787</v>
       </c>
       <c r="H479" t="n">
-        <v>0.5112985372543335</v>
+        <v>0.4883173704147339</v>
       </c>
     </row>
     <row r="480">
@@ -12907,7 +12907,7 @@
         <v>0.59383441</v>
       </c>
       <c r="H480" t="n">
-        <v>0.5163733959197998</v>
+        <v>0.502388060092926</v>
       </c>
     </row>
     <row r="481">
@@ -12933,7 +12933,7 @@
         <v>0.62777804</v>
       </c>
       <c r="H481" t="n">
-        <v>0.5192534327507019</v>
+        <v>0.5155469179153442</v>
       </c>
     </row>
     <row r="482">
@@ -12959,7 +12959,7 @@
         <v>0.56677151</v>
       </c>
       <c r="H482" t="n">
-        <v>0.5202473998069763</v>
+        <v>0.526083767414093</v>
       </c>
     </row>
     <row r="483">
@@ -12985,7 +12985,7 @@
         <v>0.58830571</v>
       </c>
       <c r="H483" t="n">
-        <v>0.5183005332946777</v>
+        <v>0.5324483513832092</v>
       </c>
     </row>
     <row r="484">
@@ -13011,7 +13011,7 @@
         <v>0.58993944</v>
       </c>
       <c r="H484" t="n">
-        <v>0.5130724906921387</v>
+        <v>0.5344516634941101</v>
       </c>
     </row>
     <row r="485">
@@ -13037,7 +13037,7 @@
         <v>0.55425097</v>
       </c>
       <c r="H485" t="n">
-        <v>0.5049756765365601</v>
+        <v>0.5323207378387451</v>
       </c>
     </row>
     <row r="486">
@@ -13063,7 +13063,7 @@
         <v>0.55964196</v>
       </c>
       <c r="H486" t="n">
-        <v>0.4946607351303101</v>
+        <v>0.5260875821113586</v>
       </c>
     </row>
     <row r="487">
@@ -13089,7 +13089,7 @@
         <v>0.51913525</v>
       </c>
       <c r="H487" t="n">
-        <v>0.4831011295318604</v>
+        <v>0.5166645050048828</v>
       </c>
     </row>
     <row r="488">
@@ -13115,7 +13115,7 @@
         <v>0.5221241599999999</v>
       </c>
       <c r="H488" t="n">
-        <v>0.470389187335968</v>
+        <v>0.5043827295303345</v>
       </c>
     </row>
     <row r="489">
@@ -13141,7 +13141,7 @@
         <v>0.5497644900000001</v>
       </c>
       <c r="H489" t="n">
-        <v>0.4569566249847412</v>
+        <v>0.490570068359375</v>
       </c>
     </row>
     <row r="490">
@@ -13167,7 +13167,7 @@
         <v>0.56550553</v>
       </c>
       <c r="H490" t="n">
-        <v>0.4440174996852875</v>
+        <v>0.4761354923248291</v>
       </c>
     </row>
     <row r="491">
@@ -13193,7 +13193,7 @@
         <v>0.5353708</v>
       </c>
       <c r="H491" t="n">
-        <v>0.4310169517993927</v>
+        <v>0.4614879488945007</v>
       </c>
     </row>
     <row r="492">
@@ -13219,7 +13219,7 @@
         <v>0.56638499</v>
       </c>
       <c r="H492" t="n">
-        <v>0.4182504117488861</v>
+        <v>0.4468859434127808</v>
       </c>
     </row>
     <row r="493">
@@ -13245,7 +13245,7 @@
         <v>0.58486613</v>
       </c>
       <c r="H493" t="n">
-        <v>0.4061369001865387</v>
+        <v>0.4326683878898621</v>
       </c>
     </row>
     <row r="494">
@@ -13271,7 +13271,7 @@
         <v>0.55582993</v>
       </c>
       <c r="H494" t="n">
-        <v>0.3948560655117035</v>
+        <v>0.4188793301582336</v>
       </c>
     </row>
     <row r="495">
@@ -13297,7 +13297,7 @@
         <v>0.53120667</v>
       </c>
       <c r="H495" t="n">
-        <v>0.383910596370697</v>
+        <v>0.4056201577186584</v>
       </c>
     </row>
     <row r="496">
@@ -13323,7 +13323,7 @@
         <v>0.51793343</v>
       </c>
       <c r="H496" t="n">
-        <v>0.3733582496643066</v>
+        <v>0.393065869808197</v>
       </c>
     </row>
     <row r="497">
@@ -13349,7 +13349,7 @@
         <v>0.48431529</v>
       </c>
       <c r="H497" t="n">
-        <v>0.3636287748813629</v>
+        <v>0.3812538981437683</v>
       </c>
     </row>
     <row r="498">
@@ -13375,7 +13375,7 @@
         <v>0.49094096</v>
       </c>
       <c r="H498" t="n">
-        <v>0.3546095192432404</v>
+        <v>0.3703420758247375</v>
       </c>
     </row>
     <row r="499">
@@ -13401,7 +13401,7 @@
         <v>0.49768868</v>
       </c>
       <c r="H499" t="n">
-        <v>0.3464409112930298</v>
+        <v>0.3608822822570801</v>
       </c>
     </row>
     <row r="500">
@@ -13427,7 +13427,7 @@
         <v>0.4952068</v>
       </c>
       <c r="H500" t="n">
-        <v>0.339285284280777</v>
+        <v>0.353056788444519</v>
       </c>
     </row>
     <row r="501">
@@ -13453,7 +13453,7 @@
         <v>0.47589472</v>
       </c>
       <c r="H501" t="n">
-        <v>0.3335541486740112</v>
+        <v>0.3469700813293457</v>
       </c>
     </row>
     <row r="502">
@@ -13479,7 +13479,7 @@
         <v>0.45541837</v>
       </c>
       <c r="H502" t="n">
-        <v>0.3297258615493774</v>
+        <v>0.3423312306404114</v>
       </c>
     </row>
     <row r="503">
@@ -13505,7 +13505,7 @@
         <v>0.41564559</v>
       </c>
       <c r="H503" t="n">
-        <v>0.3283738791942596</v>
+        <v>0.3390597701072693</v>
       </c>
     </row>
     <row r="504">
@@ -13531,7 +13531,7 @@
         <v>0.40660532</v>
       </c>
       <c r="H504" t="n">
-        <v>0.3290520310401917</v>
+        <v>0.3372086882591248</v>
       </c>
     </row>
     <row r="505">
@@ -13557,7 +13557,7 @@
         <v>0.43383096</v>
       </c>
       <c r="H505" t="n">
-        <v>0.3317667543888092</v>
+        <v>0.3378395438194275</v>
       </c>
     </row>
     <row r="506">
@@ -13583,7 +13583,7 @@
         <v>0.3522163897000003</v>
       </c>
       <c r="H506" t="n">
-        <v>0.3365398943424225</v>
+        <v>0.3415514230728149</v>
       </c>
     </row>
     <row r="507">
@@ -13609,7 +13609,7 @@
         <v>0.47002645</v>
       </c>
       <c r="H507" t="n">
-        <v>0.3427444398403168</v>
+        <v>0.3479148149490356</v>
       </c>
     </row>
     <row r="508">
@@ -13635,7 +13635,7 @@
         <v>0.49752594</v>
       </c>
       <c r="H508" t="n">
-        <v>0.3516933917999268</v>
+        <v>0.3571798205375671</v>
       </c>
     </row>
     <row r="509">
@@ -13661,7 +13661,7 @@
         <v>0.47067587</v>
       </c>
       <c r="H509" t="n">
-        <v>0.3619973063468933</v>
+        <v>0.3686677217483521</v>
       </c>
     </row>
     <row r="510">
@@ -13687,7 +13687,7 @@
         <v>0.45742297</v>
       </c>
       <c r="H510" t="n">
-        <v>0.373577743768692</v>
+        <v>0.3812037110328674</v>
       </c>
     </row>
     <row r="511">
@@ -13713,7 +13713,7 @@
         <v>0.42290346</v>
       </c>
       <c r="H511" t="n">
-        <v>0.3867450058460236</v>
+        <v>0.3943881392478943</v>
       </c>
     </row>
     <row r="512">
@@ -13739,7 +13739,7 @@
         <v>0.42209286</v>
       </c>
       <c r="H512" t="n">
-        <v>0.400486022233963</v>
+        <v>0.4075509309768677</v>
       </c>
     </row>
     <row r="513">
@@ -13765,7 +13765,7 @@
         <v>0.40202651</v>
       </c>
       <c r="H513" t="n">
-        <v>0.4145980179309845</v>
+        <v>0.4207953810691833</v>
       </c>
     </row>
     <row r="514">
@@ -13791,7 +13791,7 @@
         <v>0.43242571</v>
       </c>
       <c r="H514" t="n">
-        <v>0.4284450113773346</v>
+        <v>0.4335101842880249</v>
       </c>
     </row>
     <row r="515">
@@ -13817,7 +13817,7 @@
         <v>0.45033097</v>
       </c>
       <c r="H515" t="n">
-        <v>0.4424696862697601</v>
+        <v>0.4462693929672241</v>
       </c>
     </row>
     <row r="516">
@@ -13843,7 +13843,7 @@
         <v>0.42998294</v>
       </c>
       <c r="H516" t="n">
-        <v>0.456497848033905</v>
+        <v>0.4591929912567139</v>
       </c>
     </row>
     <row r="517">
@@ -13869,7 +13869,7 @@
         <v>0.43328482</v>
       </c>
       <c r="H517" t="n">
-        <v>0.4704682230949402</v>
+        <v>0.4720170497894287</v>
       </c>
     </row>
     <row r="518">
@@ -13895,7 +13895,7 @@
         <v>0.43020359</v>
       </c>
       <c r="H518" t="n">
-        <v>0.4843479990959167</v>
+        <v>0.4847713708877563</v>
       </c>
     </row>
     <row r="519">
@@ -13921,7 +13921,7 @@
         <v>0.41600394</v>
       </c>
       <c r="H519" t="n">
-        <v>0.498099684715271</v>
+        <v>0.4973823428153992</v>
       </c>
     </row>
     <row r="520">
@@ -13947,7 +13947,7 @@
         <v>0.37738291</v>
       </c>
       <c r="H520" t="n">
-        <v>0.5116467475891113</v>
+        <v>0.5097165107727051</v>
       </c>
     </row>
     <row r="521">
@@ -13973,7 +13973,7 @@
         <v>0.41775503</v>
       </c>
       <c r="H521" t="n">
-        <v>0.5249618887901306</v>
+        <v>0.521679162979126</v>
       </c>
     </row>
     <row r="522">
@@ -13999,7 +13999,7 @@
         <v>0.38561883</v>
       </c>
       <c r="H522" t="n">
-        <v>0.5381011366844177</v>
+        <v>0.5338000655174255</v>
       </c>
     </row>
     <row r="523">
@@ -14025,7 +14025,7 @@
         <v>0.39928955</v>
       </c>
       <c r="H523" t="n">
-        <v>0.5510620474815369</v>
+        <v>0.5457363128662109</v>
       </c>
     </row>
     <row r="524">
@@ -14051,7 +14051,7 @@
         <v>0.40661784</v>
       </c>
       <c r="H524" t="n">
-        <v>0.5637958645820618</v>
+        <v>0.5579103827476501</v>
       </c>
     </row>
     <row r="525">
@@ -14077,7 +14077,7 @@
         <v>0.42425238</v>
       </c>
       <c r="H525" t="n">
-        <v>0.576313316822052</v>
+        <v>0.5703299641609192</v>
       </c>
     </row>
     <row r="526">
@@ -14103,7 +14103,7 @@
         <v>0.46181243</v>
       </c>
       <c r="H526" t="n">
-        <v>0.5875753164291382</v>
+        <v>0.5829828977584839</v>
       </c>
     </row>
     <row r="527">
@@ -14129,7 +14129,7 @@
         <v>0.53709059</v>
       </c>
       <c r="H527" t="n">
-        <v>0.5962481498718262</v>
+        <v>0.5950355529785156</v>
       </c>
     </row>
     <row r="528">
@@ -14155,7 +14155,7 @@
         <v>0.51697573</v>
       </c>
       <c r="H528" t="n">
-        <v>0.6023088693618774</v>
+        <v>0.6063244342803955</v>
       </c>
     </row>
     <row r="529">
@@ -14181,7 +14181,7 @@
         <v>0.45515547</v>
       </c>
       <c r="H529" t="n">
-        <v>0.6058067083358765</v>
+        <v>0.6151607632637024</v>
       </c>
     </row>
     <row r="530">
@@ -14207,7 +14207,7 @@
         <v>0.49045272</v>
       </c>
       <c r="H530" t="n">
-        <v>0.6070451736450195</v>
+        <v>0.6205935478210449</v>
       </c>
     </row>
     <row r="531">
@@ -14233,7 +14233,7 @@
         <v>0.46516282</v>
       </c>
       <c r="H531" t="n">
-        <v>0.6065167784690857</v>
+        <v>0.6233678460121155</v>
       </c>
     </row>
     <row r="532">
@@ -14259,7 +14259,7 @@
         <v>0.4751827</v>
       </c>
       <c r="H532" t="n">
-        <v>0.6045761704444885</v>
+        <v>0.6236115097999573</v>
       </c>
     </row>
     <row r="533">
@@ -14285,7 +14285,7 @@
         <v>0.49327418</v>
       </c>
       <c r="H533" t="n">
-        <v>0.6019034385681152</v>
+        <v>0.6215399503707886</v>
       </c>
     </row>
     <row r="534">
@@ -14311,7 +14311,7 @@
         <v>0.52613492</v>
       </c>
       <c r="H534" t="n">
-        <v>0.5986928939819336</v>
+        <v>0.6182247996330261</v>
       </c>
     </row>
     <row r="535">
@@ -14337,7 +14337,7 @@
         <v>0.55294587</v>
       </c>
       <c r="H535" t="n">
-        <v>0.5945167541503906</v>
+        <v>0.6140985488891602</v>
       </c>
     </row>
     <row r="536">
@@ -14363,7 +14363,7 @@
         <v>0.56406272</v>
       </c>
       <c r="H536" t="n">
-        <v>0.5890125036239624</v>
+        <v>0.6092468500137329</v>
       </c>
     </row>
     <row r="537">
@@ -14389,7 +14389,7 @@
         <v>0.59339781</v>
       </c>
       <c r="H537" t="n">
-        <v>0.5814669728279114</v>
+        <v>0.603344202041626</v>
       </c>
     </row>
     <row r="538">
@@ -14415,7 +14415,7 @@
         <v>0.54300268</v>
       </c>
       <c r="H538" t="n">
-        <v>0.5725631713867188</v>
+        <v>0.5955051779747009</v>
       </c>
     </row>
     <row r="539">
@@ -14441,7 +14441,7 @@
         <v>0.47229238</v>
       </c>
       <c r="H539" t="n">
-        <v>0.5619720220565796</v>
+        <v>0.5851671695709229</v>
       </c>
     </row>
     <row r="540">
@@ -14467,7 +14467,7 @@
         <v>0.43686525</v>
       </c>
       <c r="H540" t="n">
-        <v>0.5495930314064026</v>
+        <v>0.5722112059593201</v>
       </c>
     </row>
     <row r="541">
@@ -14493,7 +14493,7 @@
         <v>0.4096224</v>
       </c>
       <c r="H541" t="n">
-        <v>0.5360313057899475</v>
+        <v>0.5566607713699341</v>
       </c>
     </row>
     <row r="542">
@@ -14519,7 +14519,7 @@
         <v>0.39762139</v>
       </c>
       <c r="H542" t="n">
-        <v>0.5220434665679932</v>
+        <v>0.5393536686897278</v>
       </c>
     </row>
     <row r="543">
@@ -14545,7 +14545,7 @@
         <v>0.39731155</v>
       </c>
       <c r="H543" t="n">
-        <v>0.5083414912223816</v>
+        <v>0.5212523341178894</v>
       </c>
     </row>
     <row r="544">
@@ -14571,7 +14571,7 @@
         <v>0.42786567</v>
       </c>
       <c r="H544" t="n">
-        <v>0.495330810546875</v>
+        <v>0.5037568211555481</v>
       </c>
     </row>
     <row r="545">
@@ -14597,7 +14597,7 @@
         <v>0.42085035</v>
       </c>
       <c r="H545" t="n">
-        <v>0.4836199581623077</v>
+        <v>0.4876618385314941</v>
       </c>
     </row>
     <row r="546">
@@ -14623,7 +14623,7 @@
         <v>0.48232164</v>
       </c>
       <c r="H546" t="n">
-        <v>0.4735383987426758</v>
+        <v>0.4733923673629761</v>
       </c>
     </row>
     <row r="547">
@@ -14649,7 +14649,7 @@
         <v>0.50192636</v>
       </c>
       <c r="H547" t="n">
-        <v>0.4649467766284943</v>
+        <v>0.4617654085159302</v>
       </c>
     </row>
     <row r="548">
@@ -14675,7 +14675,7 @@
         <v>0.47524842</v>
       </c>
       <c r="H548" t="n">
-        <v>0.4580742120742798</v>
+        <v>0.452572762966156</v>
       </c>
     </row>
     <row r="549">
@@ -14701,7 +14701,7 @@
         <v>0.52535562</v>
       </c>
       <c r="H549" t="n">
-        <v>0.45250004529953</v>
+        <v>0.4451486468315125</v>
       </c>
     </row>
     <row r="550">
@@ -14727,7 +14727,7 @@
         <v>0.5107866599999999</v>
       </c>
       <c r="H550" t="n">
-        <v>0.448026031255722</v>
+        <v>0.4395371079444885</v>
       </c>
     </row>
     <row r="551">
@@ -14753,7 +14753,7 @@
         <v>0.53278876</v>
       </c>
       <c r="H551" t="n">
-        <v>0.4441916048526764</v>
+        <v>0.434994637966156</v>
       </c>
     </row>
     <row r="552">
@@ -14779,7 +14779,7 @@
         <v>0.52174389</v>
       </c>
       <c r="H552" t="n">
-        <v>0.4407479763031006</v>
+        <v>0.4313674569129944</v>
       </c>
     </row>
     <row r="553">
@@ -14805,7 +14805,7 @@
         <v>0.49884043</v>
       </c>
       <c r="H553" t="n">
-        <v>0.4374640285968781</v>
+        <v>0.4281840324401855</v>
       </c>
     </row>
     <row r="554">
@@ -14831,7 +14831,7 @@
         <v>0.48654367</v>
       </c>
       <c r="H554" t="n">
-        <v>0.4341962039470673</v>
+        <v>0.4248639345169067</v>
       </c>
     </row>
     <row r="555">
@@ -14857,7 +14857,7 @@
         <v>0.48973601</v>
       </c>
       <c r="H555" t="n">
-        <v>0.4307922720909119</v>
+        <v>0.4213408231735229</v>
       </c>
     </row>
     <row r="556">
@@ -14883,7 +14883,7 @@
         <v>0.49292678</v>
       </c>
       <c r="H556" t="n">
-        <v>0.4271259307861328</v>
+        <v>0.4176199436187744</v>
       </c>
     </row>
     <row r="557">
@@ -14909,7 +14909,7 @@
         <v>0.486431</v>
       </c>
       <c r="H557" t="n">
-        <v>0.4232494235038757</v>
+        <v>0.4134112000465393</v>
       </c>
     </row>
     <row r="558">
@@ -14935,7 +14935,7 @@
         <v>0.49175782</v>
       </c>
       <c r="H558" t="n">
-        <v>0.4194900095462799</v>
+        <v>0.4091234803199768</v>
       </c>
     </row>
     <row r="559">
@@ -14961,7 +14961,7 @@
         <v>0.49384066</v>
       </c>
       <c r="H559" t="n">
-        <v>0.415656566619873</v>
+        <v>0.4049713611602783</v>
       </c>
     </row>
     <row r="560">
@@ -14987,7 +14987,7 @@
         <v>0.50451778</v>
       </c>
       <c r="H560" t="n">
-        <v>0.4114292860031128</v>
+        <v>0.4009211659431458</v>
       </c>
     </row>
     <row r="561">
@@ -15013,7 +15013,7 @@
         <v>0.49080481</v>
       </c>
       <c r="H561" t="n">
-        <v>0.4071058928966522</v>
+        <v>0.396949827671051</v>
       </c>
     </row>
     <row r="562">
@@ -15039,7 +15039,7 @@
         <v>0.48446708</v>
       </c>
       <c r="H562" t="n">
-        <v>0.4026735126972198</v>
+        <v>0.3930346369743347</v>
       </c>
     </row>
     <row r="563">
@@ -15065,7 +15065,7 @@
         <v>0.47713722</v>
       </c>
       <c r="H563" t="n">
-        <v>0.3982128798961639</v>
+        <v>0.3892753720283508</v>
       </c>
     </row>
     <row r="564">
@@ -15091,7 +15091,7 @@
         <v>0.50411405</v>
       </c>
       <c r="H564" t="n">
-        <v>0.3936060965061188</v>
+        <v>0.3854555487632751</v>
       </c>
     </row>
     <row r="565">
@@ -15117,7 +15117,7 @@
         <v>0.5529756</v>
       </c>
       <c r="H565" t="n">
-        <v>0.3889764547348022</v>
+        <v>0.3817410469055176</v>
       </c>
     </row>
     <row r="566">
@@ -15143,7 +15143,7 @@
         <v>0.59461841</v>
       </c>
       <c r="H566" t="n">
-        <v>0.3845447599887848</v>
+        <v>0.3785312175750732</v>
       </c>
     </row>
     <row r="567">
@@ -15169,7 +15169,7 @@
         <v>0.59296121</v>
       </c>
       <c r="H567" t="n">
-        <v>0.3798429369926453</v>
+        <v>0.3757791519165039</v>
       </c>
     </row>
     <row r="568">
@@ -15195,7 +15195,7 @@
         <v>0.5889301</v>
       </c>
       <c r="H568" t="n">
-        <v>0.374686062335968</v>
+        <v>0.3729289174079895</v>
       </c>
     </row>
     <row r="569">
@@ -15221,7 +15221,7 @@
         <v>0.54860179</v>
       </c>
       <c r="H569" t="n">
-        <v>0.369028240442276</v>
+        <v>0.3697343468666077</v>
       </c>
     </row>
     <row r="570">
@@ -15247,7 +15247,7 @@
         <v>0.53479179</v>
       </c>
       <c r="H570" t="n">
-        <v>0.3626382946968079</v>
+        <v>0.3657312989234924</v>
       </c>
     </row>
     <row r="571">
@@ -15273,7 +15273,7 @@
         <v>0.54970189</v>
       </c>
       <c r="H571" t="n">
-        <v>0.355506032705307</v>
+        <v>0.3609177470207214</v>
       </c>
     </row>
     <row r="572">
@@ -15299,7 +15299,7 @@
         <v>0.54389152</v>
       </c>
       <c r="H572" t="n">
-        <v>0.3476954102516174</v>
+        <v>0.3556088209152222</v>
       </c>
     </row>
     <row r="573">
@@ -15325,7 +15325,7 @@
         <v>0.5455612399999999</v>
       </c>
       <c r="H573" t="n">
-        <v>0.3393301963806152</v>
+        <v>0.3498912453651428</v>
       </c>
     </row>
     <row r="574">
@@ -15351,7 +15351,7 @@
         <v>0.53280441</v>
       </c>
       <c r="H574" t="n">
-        <v>0.3315625488758087</v>
+        <v>0.343596875667572</v>
       </c>
     </row>
     <row r="575">
@@ -15377,7 +15377,7 @@
         <v>0.53976183</v>
       </c>
       <c r="H575" t="n">
-        <v>0.3245380520820618</v>
+        <v>0.3369004726409912</v>
       </c>
     </row>
     <row r="576">
@@ -15403,7 +15403,7 @@
         <v>0.53230521</v>
       </c>
       <c r="H576" t="n">
-        <v>0.3180835843086243</v>
+        <v>0.3298391699790955</v>
       </c>
     </row>
     <row r="577">
@@ -15429,7 +15429,7 @@
         <v>0.51144391</v>
       </c>
       <c r="H577" t="n">
-        <v>0.3120759427547455</v>
+        <v>0.3221826553344727</v>
       </c>
     </row>
     <row r="578">
@@ -15455,7 +15455,7 @@
         <v>0.5189131030999995</v>
       </c>
       <c r="H578" t="n">
-        <v>0.3065783083438873</v>
+        <v>0.3141756057739258</v>
       </c>
     </row>
     <row r="579">
@@ -15481,7 +15481,7 @@
         <v>0.51494922</v>
       </c>
       <c r="H579" t="n">
-        <v>0.3016495406627655</v>
+        <v>0.3064566254615784</v>
       </c>
     </row>
     <row r="580">
@@ -15507,7 +15507,7 @@
         <v>0.54615746</v>
       </c>
       <c r="H580" t="n">
-        <v>0.2971735298633575</v>
+        <v>0.2992171049118042</v>
       </c>
     </row>
     <row r="581">
@@ -15533,7 +15533,7 @@
         <v>0.5565497700000001</v>
       </c>
       <c r="H581" t="n">
-        <v>0.2930077910423279</v>
+        <v>0.2929089665412903</v>
       </c>
     </row>
     <row r="582">
@@ -15559,7 +15559,7 @@
         <v>0.50939862</v>
       </c>
       <c r="H582" t="n">
-        <v>0.2887410819530487</v>
+        <v>0.2870532870292664</v>
       </c>
     </row>
     <row r="583">
@@ -15585,7 +15585,7 @@
         <v>0.44112952</v>
       </c>
       <c r="H583" t="n">
-        <v>0.2847355306148529</v>
+        <v>0.281140923500061</v>
       </c>
     </row>
     <row r="584">
@@ -15611,7 +15611,7 @@
         <v>0.41119822</v>
       </c>
       <c r="H584" t="n">
-        <v>0.2808456122875214</v>
+        <v>0.2746168971061707</v>
       </c>
     </row>
     <row r="585">
@@ -15637,7 +15637,7 @@
         <v>0.37604181</v>
       </c>
       <c r="H585" t="n">
-        <v>0.2774438560009003</v>
+        <v>0.2671805620193481</v>
       </c>
     </row>
     <row r="586">
@@ -15663,7 +15663,7 @@
         <v>0.35615542</v>
       </c>
       <c r="H586" t="n">
-        <v>0.2750657200813293</v>
+        <v>0.259619414806366</v>
       </c>
     </row>
     <row r="587">
@@ -15689,7 +15689,7 @@
         <v>0.39916749</v>
       </c>
       <c r="H587" t="n">
-        <v>0.2761105895042419</v>
+        <v>0.2536942958831787</v>
       </c>
     </row>
     <row r="588">
@@ -15715,7 +15715,7 @@
         <v>0.47463656</v>
       </c>
       <c r="H588" t="n">
-        <v>0.2815387845039368</v>
+        <v>0.2523446083068848</v>
       </c>
     </row>
     <row r="589">
@@ -15741,7 +15741,7 @@
         <v>0.51787397</v>
       </c>
       <c r="H589" t="n">
-        <v>0.2911328375339508</v>
+        <v>0.2588359415531158</v>
       </c>
     </row>
     <row r="590">
@@ -15767,7 +15767,7 @@
         <v>0.50960675</v>
       </c>
       <c r="H590" t="n">
-        <v>0.305062472820282</v>
+        <v>0.272897481918335</v>
       </c>
     </row>
     <row r="591">
@@ -15793,7 +15793,7 @@
         <v>0.44292913</v>
       </c>
       <c r="H591" t="n">
-        <v>0.3244062960147858</v>
+        <v>0.2932204604148865</v>
       </c>
     </row>
     <row r="592">
@@ -15819,7 +15819,7 @@
         <v>0.41674413</v>
       </c>
       <c r="H592" t="n">
-        <v>0.3482459485530853</v>
+        <v>0.3178632259368896</v>
       </c>
     </row>
     <row r="593">
@@ -15845,7 +15845,7 @@
         <v>0.4120636</v>
       </c>
       <c r="H593" t="n">
-        <v>0.3757149577140808</v>
+        <v>0.3464447855949402</v>
       </c>
     </row>
     <row r="594">
@@ -15871,7 +15871,7 @@
         <v>0.42546046</v>
       </c>
       <c r="H594" t="n">
-        <v>0.4054760336875916</v>
+        <v>0.378681480884552</v>
       </c>
     </row>
     <row r="595">
@@ -15897,7 +15897,7 @@
         <v>0.4944494</v>
       </c>
       <c r="H595" t="n">
-        <v>0.4387011229991913</v>
+        <v>0.413799524307251</v>
       </c>
     </row>
     <row r="596">
@@ -15923,7 +15923,7 @@
         <v>0.54549865</v>
       </c>
       <c r="H596" t="n">
-        <v>0.4730814397335052</v>
+        <v>0.451801061630249</v>
       </c>
     </row>
     <row r="597">
@@ -15949,7 +15949,7 @@
         <v>0.55147333</v>
       </c>
       <c r="H597" t="n">
-        <v>0.5052860975265503</v>
+        <v>0.4905996322631836</v>
       </c>
     </row>
     <row r="598">
@@ -15975,7 +15975,7 @@
         <v>0.57570224</v>
       </c>
       <c r="H598" t="n">
-        <v>0.5345714688301086</v>
+        <v>0.5273357033729553</v>
       </c>
     </row>
     <row r="599">
@@ -16001,7 +16001,7 @@
         <v>0.54970189</v>
       </c>
       <c r="H599" t="n">
-        <v>0.5601048469543457</v>
+        <v>0.5604799389839172</v>
       </c>
     </row>
     <row r="600">
@@ -16027,7 +16027,7 @@
         <v>0.52167034</v>
       </c>
       <c r="H600" t="n">
-        <v>0.580454409122467</v>
+        <v>0.5881167650222778</v>
       </c>
     </row>
     <row r="601">
@@ -16053,7 +16053,7 @@
         <v>0.54872228</v>
       </c>
       <c r="H601" t="n">
-        <v>0.5960349440574646</v>
+        <v>0.6093824505805969</v>
       </c>
     </row>
     <row r="602">
@@ -16079,7 +16079,7 @@
         <v>0.50816863</v>
       </c>
       <c r="H602" t="n">
-        <v>0.6083416938781738</v>
+        <v>0.6245395541191101</v>
       </c>
     </row>
     <row r="603">
@@ -16105,7 +16105,7 @@
         <v>0.50982739</v>
       </c>
       <c r="H603" t="n">
-        <v>0.6168780922889709</v>
+        <v>0.6337372660636902</v>
       </c>
     </row>
     <row r="604">
@@ -16131,7 +16131,7 @@
         <v>0.51148616</v>
       </c>
       <c r="H604" t="n">
-        <v>0.6214943528175354</v>
+        <v>0.6381674408912659</v>
       </c>
     </row>
     <row r="605">
@@ -16157,7 +16157,7 @@
         <v>0.5069589799999999</v>
       </c>
       <c r="H605" t="n">
-        <v>0.6231811046600342</v>
+        <v>0.6383818387985229</v>
       </c>
     </row>
     <row r="606">
@@ -16183,7 +16183,7 @@
         <v>0.43433485</v>
       </c>
       <c r="H606" t="n">
-        <v>0.6227800846099854</v>
+        <v>0.6351972222328186</v>
       </c>
     </row>
     <row r="607">
@@ -16209,7 +16209,7 @@
         <v>0.42334476</v>
       </c>
       <c r="H607" t="n">
-        <v>0.6208688616752625</v>
+        <v>0.6289297342300415</v>
       </c>
     </row>
     <row r="608">
@@ -16235,7 +16235,7 @@
         <v>0.4458257</v>
       </c>
       <c r="H608" t="n">
-        <v>0.6181849837303162</v>
+        <v>0.6211832165718079</v>
       </c>
     </row>
     <row r="609">
@@ -16261,7 +16261,7 @@
         <v>0.41285699</v>
       </c>
       <c r="H609" t="n">
-        <v>0.615816056728363</v>
+        <v>0.6131467223167419</v>
       </c>
     </row>
     <row r="610">
@@ -16287,7 +16287,7 @@
         <v>0.44767851</v>
       </c>
       <c r="H610" t="n">
-        <v>0.6143766641616821</v>
+        <v>0.6056035757064819</v>
       </c>
     </row>
     <row r="611">
@@ -16313,7 +16313,7 @@
         <v>0.42486738</v>
       </c>
       <c r="H611" t="n">
-        <v>0.6144471764564514</v>
+        <v>0.5999959707260132</v>
       </c>
     </row>
     <row r="612">
@@ -16339,7 +16339,7 @@
         <v>0.46543668</v>
       </c>
       <c r="H612" t="n">
-        <v>0.6157481074333191</v>
+        <v>0.5966042280197144</v>
       </c>
     </row>
     <row r="613">
@@ -16365,7 +16365,7 @@
         <v>0.4847159</v>
       </c>
       <c r="H613" t="n">
-        <v>0.6182562112808228</v>
+        <v>0.5960498452186584</v>
       </c>
     </row>
     <row r="614">
@@ -16391,7 +16391,7 @@
         <v>0.48720248</v>
       </c>
       <c r="H614" t="n">
-        <v>0.6215673089027405</v>
+        <v>0.598250150680542</v>
       </c>
     </row>
     <row r="615">
@@ -16417,7 +16417,7 @@
         <v>0.48447804</v>
       </c>
       <c r="H615" t="n">
-        <v>0.6249510049819946</v>
+        <v>0.6026982665061951</v>
       </c>
     </row>
     <row r="616">
@@ -16443,7 +16443,7 @@
         <v>0.48618688</v>
       </c>
       <c r="H616" t="n">
-        <v>0.6276280879974365</v>
+        <v>0.6081004738807678</v>
       </c>
     </row>
     <row r="617">
@@ -16469,7 +16469,7 @@
         <v>0.51752656</v>
       </c>
       <c r="H617" t="n">
-        <v>0.629002571105957</v>
+        <v>0.6137121915817261</v>
       </c>
     </row>
     <row r="618">
@@ -16495,7 +16495,7 @@
         <v>0.52485173</v>
       </c>
       <c r="H618" t="n">
-        <v>0.6286686658859253</v>
+        <v>0.6185100078582764</v>
       </c>
     </row>
     <row r="619">
@@ -16521,7 +16521,7 @@
         <v>0.52181118</v>
       </c>
       <c r="H619" t="n">
-        <v>0.6260775327682495</v>
+        <v>0.6212010979652405</v>
       </c>
     </row>
     <row r="620">
@@ -16547,7 +16547,7 @@
         <v>0.54213104</v>
       </c>
       <c r="H620" t="n">
-        <v>0.6201323270797729</v>
+        <v>0.6214365363121033</v>
       </c>
     </row>
     <row r="621">
@@ -16573,7 +16573,7 @@
         <v>0.5474876</v>
       </c>
       <c r="H621" t="n">
-        <v>0.6108835339546204</v>
+        <v>0.6192055344581604</v>
       </c>
     </row>
     <row r="622">
@@ -16599,7 +16599,7 @@
         <v>0.556495</v>
       </c>
       <c r="H622" t="n">
-        <v>0.5980379581451416</v>
+        <v>0.6139179468154907</v>
       </c>
     </row>
     <row r="623">
@@ -16625,7 +16625,7 @@
         <v>0.56062783</v>
       </c>
       <c r="H623" t="n">
-        <v>0.5816642642021179</v>
+        <v>0.6053576469421387</v>
       </c>
     </row>
     <row r="624">
@@ -16651,7 +16651,7 @@
         <v>0.5816988199999999</v>
       </c>
       <c r="H624" t="n">
-        <v>0.5620226860046387</v>
+        <v>0.5934473276138306</v>
       </c>
     </row>
     <row r="625">
@@ -16677,7 +16677,7 @@
         <v>0.62136989</v>
       </c>
       <c r="H625" t="n">
-        <v>0.5398520231246948</v>
+        <v>0.5786598920822144</v>
       </c>
     </row>
     <row r="626">
@@ -16703,7 +16703,7 @@
         <v>0.5719168100000001</v>
       </c>
       <c r="H626" t="n">
-        <v>0.5160312652587891</v>
+        <v>0.5612221360206604</v>
       </c>
     </row>
     <row r="627">
@@ -16729,7 +16729,7 @@
         <v>0.62773892</v>
       </c>
       <c r="H627" t="n">
-        <v>0.4892390370368958</v>
+        <v>0.5411591529846191</v>
       </c>
     </row>
     <row r="628">
@@ -16755,7 +16755,7 @@
         <v>0.67965823</v>
       </c>
       <c r="H628" t="n">
-        <v>0.4599761664867401</v>
+        <v>0.5192975997924805</v>
       </c>
     </row>
     <row r="629">
@@ -16781,7 +16781,7 @@
         <v>0.68339984</v>
       </c>
       <c r="H629" t="n">
-        <v>0.4277053773403168</v>
+        <v>0.4964250326156616</v>
       </c>
     </row>
     <row r="630">
@@ -16807,7 +16807,7 @@
         <v>0.7132216</v>
       </c>
       <c r="H630" t="n">
-        <v>0.3969353139400482</v>
+        <v>0.4736014008522034</v>
       </c>
     </row>
     <row r="631">
@@ -16833,7 +16833,7 @@
         <v>0.61632474</v>
       </c>
       <c r="H631" t="n">
-        <v>0.3676369786262512</v>
+        <v>0.4509598016738892</v>
       </c>
     </row>
     <row r="632">
@@ -16859,7 +16859,7 @@
         <v>0.48194138</v>
       </c>
       <c r="H632" t="n">
-        <v>0.3432254493236542</v>
+        <v>0.4274314641952515</v>
       </c>
     </row>
     <row r="633">
@@ -16885,7 +16885,7 @@
         <v>0.32171103</v>
       </c>
       <c r="H633" t="n">
-        <v>0.3203941285610199</v>
+        <v>0.4020248651504517</v>
       </c>
     </row>
     <row r="634">
@@ -16911,7 +16911,7 @@
         <v>0.29572634</v>
       </c>
       <c r="H634" t="n">
-        <v>0.2982883453369141</v>
+        <v>0.3736248016357422</v>
       </c>
     </row>
     <row r="635">
@@ -16937,7 +16937,7 @@
         <v>0.36530836</v>
       </c>
       <c r="H635" t="n">
-        <v>0.2777940034866333</v>
+        <v>0.3436273336410522</v>
       </c>
     </row>
     <row r="636">
@@ -16963,7 +16963,7 @@
         <v>0.43004397</v>
       </c>
       <c r="H636" t="n">
-        <v>0.2586683630943298</v>
+        <v>0.3152314424514771</v>
       </c>
     </row>
     <row r="637">
@@ -16989,7 +16989,7 @@
         <v>0.43451794</v>
       </c>
       <c r="H637" t="n">
-        <v>0.243586853146553</v>
+        <v>0.2903257608413696</v>
       </c>
     </row>
     <row r="638">
@@ -17015,7 +17015,7 @@
         <v>0.43824547</v>
       </c>
       <c r="H638" t="n">
-        <v>0.2312020361423492</v>
+        <v>0.2690660953521729</v>
       </c>
     </row>
     <row r="639">
@@ -17041,7 +17041,7 @@
         <v>0.47932491</v>
       </c>
       <c r="H639" t="n">
-        <v>0.2203578054904938</v>
+        <v>0.2519495189189911</v>
       </c>
     </row>
     <row r="640">
@@ -17067,7 +17067,7 @@
         <v>0.58807255</v>
       </c>
       <c r="H640" t="n">
-        <v>0.2116404473781586</v>
+        <v>0.2390198260545731</v>
       </c>
     </row>
     <row r="641">
@@ -17093,7 +17093,7 @@
         <v>0.58722595</v>
       </c>
       <c r="H641" t="n">
-        <v>0.2046758830547333</v>
+        <v>0.2307996898889542</v>
       </c>
     </row>
     <row r="642">
@@ -17119,7 +17119,7 @@
         <v>0.69830994</v>
       </c>
       <c r="H642" t="n">
-        <v>0.199582651257515</v>
+        <v>0.2269735783338547</v>
       </c>
     </row>
     <row r="643">
@@ -17145,7 +17145,7 @@
         <v>0.73782295</v>
       </c>
       <c r="H643" t="n">
-        <v>0.1972183585166931</v>
+        <v>0.2279348075389862</v>
       </c>
     </row>
     <row r="644">
@@ -17171,7 +17171,7 @@
         <v>0.68687855</v>
       </c>
       <c r="H644" t="n">
-        <v>0.1965969949960709</v>
+        <v>0.2315135449171066</v>
       </c>
     </row>
     <row r="645">
@@ -17197,7 +17197,7 @@
         <v>0.63121293</v>
       </c>
       <c r="H645" t="n">
-        <v>0.1964815109968185</v>
+        <v>0.2350569665431976</v>
       </c>
     </row>
     <row r="646">
@@ -17223,7 +17223,7 @@
         <v>0.61033754</v>
       </c>
       <c r="H646" t="n">
-        <v>0.1965079307556152</v>
+        <v>0.2369963675737381</v>
       </c>
     </row>
     <row r="647">
@@ -17249,7 +17249,7 @@
         <v>0.56349467</v>
       </c>
       <c r="H647" t="n">
-        <v>0.1960052698850632</v>
+        <v>0.2371131181716919</v>
       </c>
     </row>
     <row r="648">
@@ -17275,7 +17275,7 @@
         <v>0.52509898</v>
       </c>
       <c r="H648" t="n">
-        <v>0.1948419362306595</v>
+        <v>0.2350590527057648</v>
       </c>
     </row>
     <row r="649">
@@ -17301,7 +17301,7 @@
         <v>0.5631222299999999</v>
       </c>
       <c r="H649" t="n">
-        <v>0.1932932436466217</v>
+        <v>0.2312399446964264</v>
       </c>
     </row>
     <row r="650">
@@ -17327,7 +17327,7 @@
         <v>0.58399606</v>
       </c>
       <c r="H650" t="n">
-        <v>0.1910954415798187</v>
+        <v>0.2263023108243942</v>
       </c>
     </row>
     <row r="651">
@@ -17353,7 +17353,7 @@
         <v>0.58179428</v>
       </c>
       <c r="H651" t="n">
-        <v>0.1885777711868286</v>
+        <v>0.2213582545518875</v>
       </c>
     </row>
     <row r="652">
@@ -17379,7 +17379,7 @@
         <v>0.5651909899999999</v>
       </c>
       <c r="H652" t="n">
-        <v>0.1859554797410965</v>
+        <v>0.2163050025701523</v>
       </c>
     </row>
     <row r="653">
@@ -17405,7 +17405,7 @@
         <v>0.55555138</v>
       </c>
       <c r="H653" t="n">
-        <v>0.1835190504789352</v>
+        <v>0.2113195806741714</v>
       </c>
     </row>
     <row r="654">
@@ -17431,7 +17431,7 @@
         <v>0.55890803</v>
       </c>
       <c r="H654" t="n">
-        <v>0.1811534762382507</v>
+        <v>0.2061379104852676</v>
       </c>
     </row>
     <row r="655">
@@ -17457,7 +17457,7 @@
         <v>0.5964227</v>
       </c>
       <c r="H655" t="n">
-        <v>0.17876236140728</v>
+        <v>0.2007702887058258</v>
       </c>
     </row>
     <row r="656">
@@ -17483,7 +17483,7 @@
         <v>0.58544982</v>
       </c>
       <c r="H656" t="n">
-        <v>0.1762522906064987</v>
+        <v>0.1957569420337677</v>
       </c>
     </row>
     <row r="657">
@@ -17509,7 +17509,7 @@
         <v>0.5974164</v>
       </c>
       <c r="H657" t="n">
-        <v>0.1738738566637039</v>
+        <v>0.1914240270853043</v>
       </c>
     </row>
     <row r="658">
@@ -17535,7 +17535,7 @@
         <v>0.60153983</v>
       </c>
       <c r="H658" t="n">
-        <v>0.1717294752597809</v>
+        <v>0.1880913078784943</v>
       </c>
     </row>
     <row r="659">
@@ -17561,7 +17561,7 @@
         <v>0.55064238</v>
       </c>
       <c r="H659" t="n">
-        <v>0.1700853258371353</v>
+        <v>0.1858220845460892</v>
       </c>
     </row>
     <row r="660">
@@ -17587,7 +17587,7 @@
         <v>0.5382705</v>
       </c>
       <c r="H660" t="n">
-        <v>0.1687930822372437</v>
+        <v>0.1836441904306412</v>
       </c>
     </row>
     <row r="661">
@@ -17613,7 +17613,7 @@
         <v>0.55941505</v>
       </c>
       <c r="H661" t="n">
-        <v>0.1682678014039993</v>
+        <v>0.1819382458925247</v>
       </c>
     </row>
     <row r="662">
@@ -17639,7 +17639,7 @@
         <v>0.6109634900000001</v>
       </c>
       <c r="H662" t="n">
-        <v>0.1688508838415146</v>
+        <v>0.1814409345388412</v>
       </c>
     </row>
     <row r="663">
@@ -17665,7 +17665,7 @@
         <v>0.67322035</v>
       </c>
       <c r="H663" t="n">
-        <v>0.1701670438051224</v>
+        <v>0.182716116309166</v>
       </c>
     </row>
     <row r="664">
@@ -17691,7 +17691,7 @@
         <v>0.71922758</v>
       </c>
       <c r="H664" t="n">
-        <v>0.1725741773843765</v>
+        <v>0.1862751692533493</v>
       </c>
     </row>
     <row r="665">
@@ -17717,7 +17717,7 @@
         <v>0.7544638</v>
       </c>
       <c r="H665" t="n">
-        <v>0.1755732297897339</v>
+        <v>0.1911556273698807</v>
       </c>
     </row>
     <row r="666">
@@ -17743,7 +17743,7 @@
         <v>0.71014976</v>
       </c>
       <c r="H666" t="n">
-        <v>0.1792529970407486</v>
+        <v>0.1963536143302917</v>
       </c>
     </row>
     <row r="667">
@@ -17769,7 +17769,7 @@
         <v>0.74853137</v>
       </c>
       <c r="H667" t="n">
-        <v>0.1824807822704315</v>
+        <v>0.2004489153623581</v>
       </c>
     </row>
     <row r="668">
@@ -17795,7 +17795,7 @@
         <v>0.69408635</v>
       </c>
       <c r="H668" t="n">
-        <v>0.1848986595869064</v>
+        <v>0.203753188252449</v>
       </c>
     </row>
     <row r="669">
@@ -17821,7 +17821,7 @@
         <v>0.7047712900000001</v>
       </c>
       <c r="H669" t="n">
-        <v>0.1867699474096298</v>
+        <v>0.2055827230215073</v>
       </c>
     </row>
     <row r="670">
@@ -17847,7 +17847,7 @@
         <v>0.6742516</v>
       </c>
       <c r="H670" t="n">
-        <v>0.1872952729463577</v>
+        <v>0.205458402633667</v>
       </c>
     </row>
     <row r="671">
@@ -17873,7 +17873,7 @@
         <v>0.60182777</v>
       </c>
       <c r="H671" t="n">
-        <v>0.185044065117836</v>
+        <v>0.2020218521356583</v>
       </c>
     </row>
     <row r="672">
@@ -17899,7 +17899,7 @@
         <v>0.56877768</v>
       </c>
       <c r="H672" t="n">
-        <v>0.1802193969488144</v>
+        <v>0.1959884911775589</v>
       </c>
     </row>
     <row r="673">
@@ -17925,7 +17925,7 @@
         <v>0.59083924</v>
       </c>
       <c r="H673" t="n">
-        <v>0.1728368699550629</v>
+        <v>0.1879846155643463</v>
       </c>
     </row>
     <row r="674">
@@ -17951,7 +17951,7 @@
         <v>0.62723659</v>
       </c>
       <c r="H674" t="n">
-        <v>0.1639150828123093</v>
+        <v>0.1794568300247192</v>
       </c>
     </row>
     <row r="675">
@@ -17977,7 +17977,7 @@
         <v>0.59256842</v>
       </c>
       <c r="H675" t="n">
-        <v>0.1542777717113495</v>
+        <v>0.1709606200456619</v>
       </c>
     </row>
     <row r="676">
@@ -18003,7 +18003,7 @@
         <v>0.51083361</v>
       </c>
       <c r="H676" t="n">
-        <v>0.1451011449098587</v>
+        <v>0.1626706719398499</v>
       </c>
     </row>
     <row r="677">
@@ -18029,7 +18029,7 @@
         <v>0.45410857</v>
       </c>
       <c r="H677" t="n">
-        <v>0.1357809156179428</v>
+        <v>0.1543072611093521</v>
       </c>
     </row>
     <row r="678">
@@ -18055,7 +18055,7 @@
         <v>0.45622428</v>
       </c>
       <c r="H678" t="n">
-        <v>0.1266611814498901</v>
+        <v>0.1461332738399506</v>
       </c>
     </row>
     <row r="679">
@@ -18081,7 +18081,7 @@
         <v>0.44807912</v>
       </c>
       <c r="H679" t="n">
-        <v>0.1188068389892578</v>
+        <v>0.1392469853162766</v>
       </c>
     </row>
     <row r="680">
@@ -18107,7 +18107,7 @@
         <v>0.49234621</v>
       </c>
       <c r="H680" t="n">
-        <v>0.1123058944940567</v>
+        <v>0.1341119706630707</v>
       </c>
     </row>
     <row r="681">
@@ -18133,7 +18133,7 @@
         <v>0.5023207</v>
       </c>
       <c r="H681" t="n">
-        <v>0.1080800965428352</v>
+        <v>0.1317214071750641</v>
       </c>
     </row>
     <row r="682">
@@ -18159,7 +18159,7 @@
         <v>0.56030546</v>
       </c>
       <c r="H682" t="n">
-        <v>0.1067681908607483</v>
+        <v>0.1322416812181473</v>
       </c>
     </row>
     <row r="683">
@@ -18185,7 +18185,7 @@
         <v>0.55308514</v>
       </c>
       <c r="H683" t="n">
-        <v>0.108166940510273</v>
+        <v>0.1365277469158173</v>
       </c>
     </row>
     <row r="684">
@@ -18211,7 +18211,7 @@
         <v>0.53777287</v>
       </c>
       <c r="H684" t="n">
-        <v>0.1118824779987335</v>
+        <v>0.1435787379741669</v>
       </c>
     </row>
     <row r="685">
@@ -18237,7 +18237,7 @@
         <v>0.509444</v>
       </c>
       <c r="H685" t="n">
-        <v>0.1183843314647675</v>
+        <v>0.1524559408426285</v>
       </c>
     </row>
     <row r="686">
@@ -18263,7 +18263,7 @@
         <v>0.55939471</v>
       </c>
       <c r="H686" t="n">
-        <v>0.1266546249389648</v>
+        <v>0.1622935086488724</v>
       </c>
     </row>
     <row r="687">
@@ -18289,7 +18289,7 @@
         <v>0.55566562</v>
       </c>
       <c r="H687" t="n">
-        <v>0.1365903913974762</v>
+        <v>0.1732154786586761</v>
       </c>
     </row>
     <row r="688">
@@ -18315,7 +18315,7 @@
         <v>0.52391437</v>
       </c>
       <c r="H688" t="n">
-        <v>0.1474392116069794</v>
+        <v>0.1848387867212296</v>
       </c>
     </row>
     <row r="689">
@@ -18341,7 +18341,7 @@
         <v>0.5438492700000001</v>
       </c>
       <c r="H689" t="n">
-        <v>0.1613030433654785</v>
+        <v>0.196904718875885</v>
       </c>
     </row>
     <row r="690">
@@ -18367,7 +18367,7 @@
         <v>0.56989187</v>
       </c>
       <c r="H690" t="n">
-        <v>0.1757901757955551</v>
+        <v>0.209499180316925</v>
       </c>
     </row>
     <row r="691">
@@ -18393,7 +18393,7 @@
         <v>0.53641144</v>
       </c>
       <c r="H691" t="n">
-        <v>0.1906968802213669</v>
+        <v>0.2226942032575607</v>
       </c>
     </row>
     <row r="692">
@@ -18419,7 +18419,7 @@
         <v>0.54466457</v>
       </c>
       <c r="H692" t="n">
-        <v>0.2080635726451874</v>
+        <v>0.2358455210924149</v>
       </c>
     </row>
     <row r="693">
@@ -18445,7 +18445,7 @@
         <v>0.57090747</v>
       </c>
       <c r="H693" t="n">
-        <v>0.2254136055707932</v>
+        <v>0.2486519664525986</v>
       </c>
     </row>
     <row r="694">
@@ -18471,7 +18471,7 @@
         <v>0.55994085</v>
       </c>
       <c r="H694" t="n">
-        <v>0.2437800467014313</v>
+        <v>0.2611119747161865</v>
       </c>
     </row>
     <row r="695">
@@ -18497,7 +18497,7 @@
         <v>0.53558049</v>
       </c>
       <c r="H695" t="n">
-        <v>0.2618982493877411</v>
+        <v>0.2728246450424194</v>
       </c>
     </row>
     <row r="696">
@@ -18523,7 +18523,7 @@
         <v>0.6656197700000001</v>
       </c>
       <c r="H696" t="n">
-        <v>0.2793058156967163</v>
+        <v>0.2833815813064575</v>
       </c>
     </row>
     <row r="697">
@@ -18549,7 +18549,7 @@
         <v>0.72154515</v>
       </c>
       <c r="H697" t="n">
-        <v>0.2954586744308472</v>
+        <v>0.2942809462547302</v>
       </c>
     </row>
     <row r="698">
@@ -18575,7 +18575,7 @@
         <v>0.69440871</v>
       </c>
       <c r="H698" t="n">
-        <v>0.3083325326442719</v>
+        <v>0.3049958348274231</v>
       </c>
     </row>
     <row r="699">
@@ -18601,7 +18601,7 @@
         <v>0.63692784</v>
       </c>
       <c r="H699" t="n">
-        <v>0.3182611763477325</v>
+        <v>0.3139891624450684</v>
       </c>
     </row>
     <row r="700">
@@ -18627,7 +18627,7 @@
         <v>0.5535327</v>
       </c>
       <c r="H700" t="n">
-        <v>0.326871246099472</v>
+        <v>0.3202219605445862</v>
       </c>
     </row>
     <row r="701">
@@ -18653,7 +18653,7 @@
         <v>0.57504968</v>
       </c>
       <c r="H701" t="n">
-        <v>0.3340650498867035</v>
+        <v>0.3233624696731567</v>
       </c>
     </row>
     <row r="702">
@@ -18679,7 +18679,7 @@
         <v>0.565939</v>
       </c>
       <c r="H702" t="n">
-        <v>0.3390462398529053</v>
+        <v>0.3238539099693298</v>
       </c>
     </row>
     <row r="703">
@@ -18705,7 +18705,7 @@
         <v>0.55367823</v>
       </c>
       <c r="H703" t="n">
-        <v>0.3405178189277649</v>
+        <v>0.3238418102264404</v>
       </c>
     </row>
     <row r="704">
@@ -18731,7 +18731,7 @@
         <v>0.57488381</v>
       </c>
       <c r="H704" t="n">
-        <v>0.3426320850849152</v>
+        <v>0.3220441937446594</v>
       </c>
     </row>
     <row r="705">
@@ -18757,7 +18757,7 @@
         <v>0.57504968</v>
       </c>
       <c r="H705" t="n">
-        <v>0.3450530171394348</v>
+        <v>0.3196501731872559</v>
       </c>
     </row>
     <row r="706">
@@ -18783,7 +18783,7 @@
         <v>0.5579033799999999</v>
       </c>
       <c r="H706" t="n">
-        <v>0.3477398157119751</v>
+        <v>0.3170269131660461</v>
       </c>
     </row>
     <row r="707">
@@ -18809,7 +18809,7 @@
         <v>0.55359529</v>
       </c>
       <c r="H707" t="n">
-        <v>0.3508164584636688</v>
+        <v>0.31464684009552</v>
       </c>
     </row>
     <row r="708">
@@ -18835,7 +18835,7 @@
         <v>0.51207768</v>
       </c>
       <c r="H708" t="n">
-        <v>0.354416161775589</v>
+        <v>0.3129474520683289</v>
       </c>
     </row>
     <row r="709">
@@ -18861,7 +18861,7 @@
         <v>0.57129086</v>
       </c>
       <c r="H709" t="n">
-        <v>0.3585181832313538</v>
+        <v>0.3116866946220398</v>
       </c>
     </row>
     <row r="710">
@@ -18887,7 +18887,7 @@
         <v>0.69532729</v>
       </c>
       <c r="H710" t="n">
-        <v>0.3625778555870056</v>
+        <v>0.3116375803947449</v>
       </c>
     </row>
     <row r="711">
@@ -18913,7 +18913,7 @@
         <v>0.67246608</v>
       </c>
       <c r="H711" t="n">
-        <v>0.3668141663074493</v>
+        <v>0.3137588500976562</v>
       </c>
     </row>
     <row r="712">
@@ -18939,7 +18939,7 @@
         <v>0.66202839</v>
       </c>
       <c r="H712" t="n">
-        <v>0.371144711971283</v>
+        <v>0.3169496655464172</v>
       </c>
     </row>
     <row r="713">
@@ -18965,7 +18965,7 @@
         <v>0.61630127</v>
       </c>
       <c r="H713" t="n">
-        <v>0.3754662871360779</v>
+        <v>0.3204359412193298</v>
       </c>
     </row>
     <row r="714">
@@ -18991,7 +18991,7 @@
         <v>0.58733236</v>
       </c>
       <c r="H714" t="n">
-        <v>0.3796853125095367</v>
+        <v>0.3232614994049072</v>
       </c>
     </row>
     <row r="715">
@@ -19017,7 +19017,7 @@
         <v>0.55938845</v>
       </c>
       <c r="H715" t="n">
-        <v>0.3837900459766388</v>
+        <v>0.3254213929176331</v>
       </c>
     </row>
     <row r="716">
@@ -19043,7 +19043,7 @@
         <v>0.58193512</v>
       </c>
       <c r="H716" t="n">
-        <v>0.387728750705719</v>
+        <v>0.3268669843673706</v>
       </c>
     </row>
     <row r="717">
@@ -19069,7 +19069,7 @@
         <v>0.6237125</v>
       </c>
       <c r="H717" t="n">
-        <v>0.391497790813446</v>
+        <v>0.328235387802124</v>
       </c>
     </row>
     <row r="718">
@@ -19095,7 +19095,7 @@
         <v>0.43534208126</v>
       </c>
       <c r="H718" t="n">
-        <v>0.3948273956775665</v>
+        <v>0.3299798369407654</v>
       </c>
     </row>
     <row r="719">
@@ -19121,7 +19121,7 @@
         <v>0.67445347</v>
       </c>
       <c r="H719" t="n">
-        <v>0.3969211876392365</v>
+        <v>0.3310060501098633</v>
       </c>
     </row>
     <row r="720">
@@ -19147,7 +19147,7 @@
         <v>0.6594041</v>
       </c>
       <c r="H720" t="n">
-        <v>0.3995080292224884</v>
+        <v>0.332663893699646</v>
       </c>
     </row>
     <row r="721">
@@ -19173,7 +19173,7 @@
         <v>0.63112999</v>
       </c>
       <c r="H721" t="n">
-        <v>0.4019979536533356</v>
+        <v>0.3340287804603577</v>
       </c>
     </row>
     <row r="722">
@@ -19199,7 +19199,7 @@
         <v>0.59476863</v>
       </c>
       <c r="H722" t="n">
-        <v>0.40434330701828</v>
+        <v>0.3349030017852783</v>
       </c>
     </row>
     <row r="723">
@@ -19225,7 +19225,7 @@
         <v>0.54601662</v>
       </c>
       <c r="H723" t="n">
-        <v>0.4064970016479492</v>
+        <v>0.3353139758110046</v>
       </c>
     </row>
     <row r="724">
@@ -19251,7 +19251,7 @@
         <v>0.54522949</v>
       </c>
       <c r="H724" t="n">
-        <v>0.409169614315033</v>
+        <v>0.3356317281723022</v>
       </c>
     </row>
     <row r="725">
@@ -19277,7 +19277,7 @@
         <v>0.57085896</v>
       </c>
       <c r="H725" t="n">
-        <v>0.4130876660346985</v>
+        <v>0.3369635343551636</v>
       </c>
     </row>
     <row r="726">
@@ -19303,7 +19303,7 @@
         <v>0.58845594</v>
       </c>
       <c r="H726" t="n">
-        <v>0.4188491702079773</v>
+        <v>0.3403608202934265</v>
       </c>
     </row>
     <row r="727">
@@ -19329,7 +19329,7 @@
         <v>0.63007996</v>
       </c>
       <c r="H727" t="n">
-        <v>0.4264944791793823</v>
+        <v>0.346089243888855</v>
       </c>
     </row>
     <row r="728">
@@ -19355,7 +19355,7 @@
         <v>0.69732094</v>
       </c>
       <c r="H728" t="n">
-        <v>0.4354635775089264</v>
+        <v>0.354284942150116</v>
       </c>
     </row>
     <row r="729">
@@ -19381,7 +19381,7 @@
         <v>0.72689858</v>
       </c>
       <c r="H729" t="n">
-        <v>0.4443069398403168</v>
+        <v>0.3649402260780334</v>
       </c>
     </row>
     <row r="730">
@@ -19407,7 +19407,7 @@
         <v>0.70636433</v>
       </c>
       <c r="H730" t="n">
-        <v>0.452399879693985</v>
+        <v>0.3765029311180115</v>
       </c>
     </row>
     <row r="731">
@@ -19433,7 +19433,7 @@
         <v>0.67342378</v>
       </c>
       <c r="H731" t="n">
-        <v>0.4595462679862976</v>
+        <v>0.387229323387146</v>
       </c>
     </row>
     <row r="732">
@@ -19459,7 +19459,7 @@
         <v>0.68720874</v>
       </c>
       <c r="H732" t="n">
-        <v>0.4638291597366333</v>
+        <v>0.3957739472389221</v>
       </c>
     </row>
     <row r="733">
@@ -19485,7 +19485,7 @@
         <v>0.68847472</v>
       </c>
       <c r="H733" t="n">
-        <v>0.4646978974342346</v>
+        <v>0.40118807554245</v>
       </c>
     </row>
     <row r="734">
@@ -19511,7 +19511,7 @@
         <v>0.64914323</v>
       </c>
       <c r="H734" t="n">
-        <v>0.4623573124408722</v>
+        <v>0.4035852551460266</v>
       </c>
     </row>
     <row r="735">
@@ -19537,7 +19537,7 @@
         <v>0.66515187</v>
       </c>
       <c r="H735" t="n">
-        <v>0.4566154479980469</v>
+        <v>0.40216463804245</v>
       </c>
     </row>
     <row r="736">
@@ -19563,7 +19563,7 @@
         <v>0.64711672</v>
       </c>
       <c r="H736" t="n">
-        <v>0.4476158618927002</v>
+        <v>0.3974780440330505</v>
       </c>
     </row>
     <row r="737">
@@ -19589,7 +19589,7 @@
         <v>0.65433078</v>
       </c>
       <c r="H737" t="n">
-        <v>0.4361977279186249</v>
+        <v>0.3900009393692017</v>
       </c>
     </row>
     <row r="738">
@@ -19615,7 +19615,7 @@
         <v>0.67023457</v>
       </c>
       <c r="H738" t="n">
-        <v>0.4230473041534424</v>
+        <v>0.3803826570510864</v>
       </c>
     </row>
     <row r="739">
@@ -19641,7 +19641,7 @@
         <v>0.68613837</v>
       </c>
       <c r="H739" t="n">
-        <v>0.4090155065059662</v>
+        <v>0.3694458603858948</v>
       </c>
     </row>
     <row r="740">
@@ -19667,7 +19667,7 @@
         <v>0.72359201</v>
       </c>
       <c r="H740" t="n">
-        <v>0.3942528665065765</v>
+        <v>0.3577823638916016</v>
       </c>
     </row>
     <row r="741">
@@ -19693,7 +19693,7 @@
         <v>0.70057587</v>
       </c>
       <c r="H741" t="n">
-        <v>0.3805055618286133</v>
+        <v>0.3464361429214478</v>
       </c>
     </row>
     <row r="742">
@@ -19719,7 +19719,7 @@
         <v>0.65904574</v>
       </c>
       <c r="H742" t="n">
-        <v>0.3669512271881104</v>
+        <v>0.3350187540054321</v>
       </c>
     </row>
     <row r="743">
@@ -19745,7 +19745,7 @@
         <v>0.60934385</v>
       </c>
       <c r="H743" t="n">
-        <v>0.3536104261875153</v>
+        <v>0.3232340812683105</v>
       </c>
     </row>
     <row r="744">
@@ -19771,7 +19771,7 @@
         <v>0.58022628</v>
       </c>
       <c r="H744" t="n">
-        <v>0.3403493463993073</v>
+        <v>0.3114563226699829</v>
       </c>
     </row>
     <row r="745">
@@ -19797,7 +19797,7 @@
         <v>0.54839209</v>
       </c>
       <c r="H745" t="n">
-        <v>0.327702522277832</v>
+        <v>0.2994829416275024</v>
       </c>
     </row>
     <row r="746">
@@ -19823,7 +19823,7 @@
         <v>0.54831698</v>
       </c>
       <c r="H746" t="n">
-        <v>0.3154081404209137</v>
+        <v>0.2875402569770813</v>
       </c>
     </row>
     <row r="747">
@@ -19849,7 +19849,7 @@
         <v>0.6187252600000001</v>
       </c>
       <c r="H747" t="n">
-        <v>0.3051511347293854</v>
+        <v>0.2757813334465027</v>
       </c>
     </row>
     <row r="748">
@@ -19875,7 +19875,7 @@
         <v>0.64665822</v>
       </c>
       <c r="H748" t="n">
-        <v>0.2971584498882294</v>
+        <v>0.2659059166908264</v>
       </c>
     </row>
     <row r="749">
@@ -19901,7 +19901,7 @@
         <v>0.70215639</v>
       </c>
       <c r="H749" t="n">
-        <v>0.2916882038116455</v>
+        <v>0.2592112421989441</v>
       </c>
     </row>
     <row r="750">
@@ -19927,7 +19927,7 @@
         <v>0.72965275</v>
       </c>
       <c r="H750" t="n">
-        <v>0.2892180979251862</v>
+        <v>0.2563413977622986</v>
       </c>
     </row>
     <row r="751">
@@ -19953,7 +19953,7 @@
         <v>0.74575529</v>
       </c>
       <c r="H751" t="n">
-        <v>0.2893522679805756</v>
+        <v>0.2568661570549011</v>
       </c>
     </row>
     <row r="752">
@@ -19979,7 +19979,7 @@
         <v>0.66997324</v>
       </c>
       <c r="H752" t="n">
-        <v>0.291780412197113</v>
+        <v>0.259246289730072</v>
       </c>
     </row>
     <row r="753">
@@ -20005,7 +20005,7 @@
         <v>0.67292928</v>
       </c>
       <c r="H753" t="n">
-        <v>0.2953751385211945</v>
+        <v>0.2623750567436218</v>
       </c>
     </row>
     <row r="754">
@@ -20031,7 +20031,7 @@
         <v>0.69756506</v>
       </c>
       <c r="H754" t="n">
-        <v>0.3001428544521332</v>
+        <v>0.2662277221679688</v>
       </c>
     </row>
     <row r="755">
@@ -20057,7 +20057,7 @@
         <v>0.73558675</v>
       </c>
       <c r="H755" t="n">
-        <v>0.3052014410495758</v>
+        <v>0.270689457654953</v>
       </c>
     </row>
     <row r="756">
@@ -20083,7 +20083,7 @@
         <v>0.76697182</v>
       </c>
       <c r="H756" t="n">
-        <v>0.3074997067451477</v>
+        <v>0.2752924561500549</v>
       </c>
     </row>
     <row r="757">
@@ -20109,7 +20109,7 @@
         <v>0.7283460899999999</v>
       </c>
       <c r="H757" t="n">
-        <v>0.3090372383594513</v>
+        <v>0.2790294289588928</v>
       </c>
     </row>
     <row r="758">
@@ -20135,7 +20135,7 @@
         <v>0.60345054</v>
       </c>
       <c r="H758" t="n">
-        <v>0.3089950680732727</v>
+        <v>0.2807348370552063</v>
       </c>
     </row>
     <row r="759">
@@ -20161,7 +20161,7 @@
         <v>0.520082</v>
       </c>
       <c r="H759" t="n">
-        <v>0.3073041439056396</v>
+        <v>0.2801158428192139</v>
       </c>
     </row>
     <row r="760">
@@ -20187,7 +20187,7 @@
         <v>0.53923133</v>
       </c>
       <c r="H760" t="n">
-        <v>0.3052155375480652</v>
+        <v>0.277247428894043</v>
       </c>
     </row>
     <row r="761">
@@ -20213,7 +20213,7 @@
         <v>0.59331643</v>
       </c>
       <c r="H761" t="n">
-        <v>0.3036825954914093</v>
+        <v>0.2740429043769836</v>
       </c>
     </row>
     <row r="762">
@@ -20239,7 +20239,7 @@
         <v>0.65756381</v>
       </c>
       <c r="H762" t="n">
-        <v>0.3029968738555908</v>
+        <v>0.2717925906181335</v>
       </c>
     </row>
     <row r="763">
@@ -20265,7 +20265,7 @@
         <v>0.59002551</v>
       </c>
       <c r="H763" t="n">
-        <v>0.3033420145511627</v>
+        <v>0.2708966135978699</v>
       </c>
     </row>
     <row r="764">
@@ -20291,7 +20291,7 @@
         <v>0.57048652</v>
       </c>
       <c r="H764" t="n">
-        <v>0.3044922947883606</v>
+        <v>0.2707839608192444</v>
       </c>
     </row>
     <row r="765">
@@ -20317,7 +20317,7 @@
         <v>0.55042486</v>
       </c>
       <c r="H765" t="n">
-        <v>0.306329756975174</v>
+        <v>0.2711973190307617</v>
       </c>
     </row>
     <row r="766">
@@ -20343,7 +20343,7 @@
         <v>0.58138742</v>
       </c>
       <c r="H766" t="n">
-        <v>0.3089126944541931</v>
+        <v>0.2721258997917175</v>
       </c>
     </row>
     <row r="767">
@@ -20369,7 +20369,7 @@
         <v>0.57011095</v>
       </c>
       <c r="H767" t="n">
-        <v>0.3126570582389832</v>
+        <v>0.2737351059913635</v>
       </c>
     </row>
     <row r="768">
@@ -20395,7 +20395,7 @@
         <v>0.60366024</v>
       </c>
       <c r="H768" t="n">
-        <v>0.3177736699581146</v>
+        <v>0.276116818189621</v>
       </c>
     </row>
     <row r="769">
@@ -20421,7 +20421,7 @@
         <v>0.58510868</v>
       </c>
       <c r="H769" t="n">
-        <v>0.3243808746337891</v>
+        <v>0.27947598695755</v>
       </c>
     </row>
     <row r="770">
@@ -20447,7 +20447,7 @@
         <v>0.5869364500000001</v>
       </c>
       <c r="H770" t="n">
-        <v>0.3331880569458008</v>
+        <v>0.2842610478401184</v>
       </c>
     </row>
     <row r="771">
@@ -20473,7 +20473,7 @@
         <v>0.59193778</v>
       </c>
       <c r="H771" t="n">
-        <v>0.3443269431591034</v>
+        <v>0.291058361530304</v>
       </c>
     </row>
     <row r="772">
@@ -20499,7 +20499,7 @@
         <v>0.6264275500000001</v>
       </c>
       <c r="H772" t="n">
-        <v>0.3579857349395752</v>
+        <v>0.3002026081085205</v>
       </c>
     </row>
     <row r="773">
@@ -20525,7 +20525,7 @@
         <v>0.63540835</v>
       </c>
       <c r="H773" t="n">
-        <v>0.3739331662654877</v>
+        <v>0.3131459951400757</v>
       </c>
     </row>
     <row r="774">
@@ -20551,7 +20551,7 @@
         <v>0.7483248</v>
       </c>
       <c r="H774" t="n">
-        <v>0.3917648792266846</v>
+        <v>0.3295965790748596</v>
       </c>
     </row>
     <row r="775">
@@ -20577,7 +20577,7 @@
         <v>0.79561836</v>
       </c>
       <c r="H775" t="n">
-        <v>0.410076916217804</v>
+        <v>0.3496637344360352</v>
       </c>
     </row>
     <row r="776">
@@ -20603,7 +20603,7 @@
         <v>0.82744472</v>
       </c>
       <c r="H776" t="n">
-        <v>0.4272382855415344</v>
+        <v>0.3718357682228088</v>
       </c>
     </row>
     <row r="777">
@@ -20629,7 +20629,7 @@
         <v>0.79981691</v>
       </c>
       <c r="H777" t="n">
-        <v>0.4438519775867462</v>
+        <v>0.393883228302002</v>
       </c>
     </row>
     <row r="778">
@@ -20655,7 +20655,7 @@
         <v>0.85210397</v>
       </c>
       <c r="H778" t="n">
-        <v>0.4569984972476959</v>
+        <v>0.41324383020401</v>
       </c>
     </row>
     <row r="779">
@@ -20681,7 +20681,7 @@
         <v>0.92698778</v>
       </c>
       <c r="H779" t="n">
-        <v>0.4653392434120178</v>
+        <v>0.4287793636322021</v>
       </c>
     </row>
     <row r="780">
@@ -20707,7 +20707,7 @@
         <v>0.88817113</v>
       </c>
       <c r="H780" t="n">
-        <v>0.4697706699371338</v>
+        <v>0.439811110496521</v>
       </c>
     </row>
     <row r="781">
@@ -20733,7 +20733,7 @@
         <v>0.7754721999999999</v>
       </c>
       <c r="H781" t="n">
-        <v>0.4705833792686462</v>
+        <v>0.4446448087692261</v>
       </c>
     </row>
     <row r="782">
@@ -20759,7 +20759,7 @@
         <v>0.74457381</v>
       </c>
       <c r="H782" t="n">
-        <v>0.4670811295509338</v>
+        <v>0.4429607391357422</v>
       </c>
     </row>
     <row r="783">
@@ -20785,7 +20785,7 @@
         <v>0.69682018</v>
       </c>
       <c r="H783" t="n">
-        <v>0.4591170847415924</v>
+        <v>0.4361382722854614</v>
       </c>
     </row>
     <row r="784">
@@ -20811,7 +20811,7 @@
         <v>0.67092781</v>
       </c>
       <c r="H784" t="n">
-        <v>0.446883887052536</v>
+        <v>0.4249034523963928</v>
       </c>
     </row>
     <row r="785">
@@ -20837,7 +20837,7 @@
         <v>0.72926936</v>
       </c>
       <c r="H785" t="n">
-        <v>0.431466668844223</v>
+        <v>0.4103586077690125</v>
       </c>
     </row>
     <row r="786">
@@ -20863,7 +20863,7 @@
         <v>0.74608704</v>
       </c>
       <c r="H786" t="n">
-        <v>0.4130750894546509</v>
+        <v>0.394180953502655</v>
       </c>
     </row>
     <row r="787">
@@ -20889,7 +20889,7 @@
         <v>0.74284775</v>
       </c>
       <c r="H787" t="n">
-        <v>0.3931146562099457</v>
+        <v>0.3773117661476135</v>
       </c>
     </row>
     <row r="788">
@@ -20915,7 +20915,7 @@
         <v>0.72597218</v>
       </c>
       <c r="H788" t="n">
-        <v>0.3734799325466156</v>
+        <v>0.3605453372001648</v>
       </c>
     </row>
     <row r="789">
@@ -20941,7 +20941,7 @@
         <v>0.70939705</v>
       </c>
       <c r="H789" t="n">
-        <v>0.354442685842514</v>
+        <v>0.3441371321678162</v>
       </c>
     </row>
     <row r="790">
@@ -20967,7 +20967,7 @@
         <v>0.63651472</v>
       </c>
       <c r="H790" t="n">
-        <v>0.336157888174057</v>
+        <v>0.3287322521209717</v>
       </c>
     </row>
     <row r="791">
@@ -20993,7 +20993,7 @@
         <v>0.64289313</v>
       </c>
       <c r="H791" t="n">
-        <v>0.3190693259239197</v>
+        <v>0.3139006495475769</v>
       </c>
     </row>
     <row r="792">
@@ -21019,7 +21019,7 @@
         <v>0.65407571</v>
       </c>
       <c r="H792" t="n">
-        <v>0.3025519251823425</v>
+        <v>0.2995451688766479</v>
       </c>
     </row>
     <row r="793">
@@ -21045,7 +21045,7 @@
         <v>0.64885686</v>
       </c>
       <c r="H793" t="n">
-        <v>0.2862634360790253</v>
+        <v>0.2858832478523254</v>
       </c>
     </row>
     <row r="794">
@@ -21071,7 +21071,7 @@
         <v>0.5898361600000001</v>
       </c>
       <c r="H794" t="n">
-        <v>0.2722614705562592</v>
+        <v>0.2728878259658813</v>
       </c>
     </row>
     <row r="795">
@@ -21097,7 +21097,7 @@
         <v>0.6088477799999999</v>
       </c>
       <c r="H795" t="n">
-        <v>0.2611319720745087</v>
+        <v>0.2605348825454712</v>
       </c>
     </row>
     <row r="796">
@@ -21123,7 +21123,7 @@
         <v>0.5820743900000001</v>
       </c>
       <c r="H796" t="n">
-        <v>0.2520006895065308</v>
+        <v>0.2498409599065781</v>
       </c>
     </row>
     <row r="797">
@@ -21149,7 +21149,7 @@
         <v>0.60218613</v>
       </c>
       <c r="H797" t="n">
-        <v>0.2437382638454437</v>
+        <v>0.241251066327095</v>
       </c>
     </row>
     <row r="798">
@@ -21175,7 +21175,7 @@
         <v>0.6369701</v>
       </c>
       <c r="H798" t="n">
-        <v>0.2376823723316193</v>
+        <v>0.2351274341344833</v>
       </c>
     </row>
     <row r="799">
@@ -21201,7 +21201,7 @@
         <v>0.68499444</v>
       </c>
       <c r="H799" t="n">
-        <v>0.2338716834783554</v>
+        <v>0.2320649176836014</v>
       </c>
     </row>
   </sheetData>
